--- a/[3] Test Input/RESULTS_TT_MERGED_DATE.xlsx
+++ b/[3] Test Input/RESULTS_TT_MERGED_DATE.xlsx
@@ -512,31 +512,31 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F2" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G2" t="n">
-        <v>88.5</v>
+        <v>39.5</v>
       </c>
       <c r="H2" t="n">
-        <v>89.03999999999999</v>
+        <v>38.15709191852535</v>
       </c>
       <c r="I2" t="n">
-        <v>85.015</v>
+        <v>37.901222596514</v>
       </c>
       <c r="J2" t="n">
-        <v>35.72499999999999</v>
+        <v>12.28</v>
       </c>
       <c r="K2" t="n">
-        <v>175.735</v>
+        <v>26.68</v>
       </c>
       <c r="L2" t="n">
-        <v>10875.925</v>
+        <v>1398.39</v>
       </c>
     </row>
     <row r="3">
@@ -556,31 +556,31 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>10.66666666666667</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>37.33333333333334</v>
+        <v>26</v>
       </c>
       <c r="F3" t="n">
-        <v>26.66666666666667</v>
+        <v>24</v>
       </c>
       <c r="G3" t="n">
-        <v>104.3333333333333</v>
+        <v>40.66666666666666</v>
       </c>
       <c r="H3" t="n">
-        <v>103.7366666666667</v>
+        <v>39.88623919920547</v>
       </c>
       <c r="I3" t="n">
-        <v>89.31333333333333</v>
+        <v>38.34724931464705</v>
       </c>
       <c r="J3" t="n">
-        <v>45.48333333333333</v>
+        <v>14.15</v>
       </c>
       <c r="K3" t="n">
-        <v>160.69</v>
+        <v>34.52666666666666</v>
       </c>
       <c r="L3" t="n">
-        <v>12149.48333333333</v>
+        <v>1790.253333333333</v>
       </c>
     </row>
     <row r="4">
@@ -600,31 +600,31 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F4" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G4" t="n">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="H4" t="n">
-        <v>93.22499999999999</v>
+        <v>37.70465581166161</v>
       </c>
       <c r="I4" t="n">
-        <v>80.655</v>
+        <v>34.26570777602306</v>
       </c>
       <c r="J4" t="n">
-        <v>38.395</v>
+        <v>13.295</v>
       </c>
       <c r="K4" t="n">
-        <v>172.07</v>
+        <v>38.66500000000001</v>
       </c>
       <c r="L4" t="n">
-        <v>10516.315</v>
+        <v>1705.13</v>
       </c>
     </row>
     <row r="5">
@@ -644,31 +644,31 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
         <v>30</v>
       </c>
       <c r="F5" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G5" t="n">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="H5" t="n">
-        <v>103.29</v>
+        <v>39.38547301865003</v>
       </c>
       <c r="I5" t="n">
-        <v>102.95</v>
+        <v>39.38547301865003</v>
       </c>
       <c r="J5" t="n">
-        <v>46.99</v>
+        <v>12.47</v>
       </c>
       <c r="K5" t="n">
-        <v>225.81</v>
+        <v>27.19</v>
       </c>
       <c r="L5" t="n">
-        <v>15597.4</v>
+        <v>1398.13</v>
       </c>
     </row>
     <row r="6">
@@ -688,31 +688,31 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F6" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G6" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="H6" t="n">
-        <v>38.23</v>
+        <v>24.66990551005223</v>
       </c>
       <c r="I6" t="n">
-        <v>31.86</v>
+        <v>23.91311652051354</v>
       </c>
       <c r="J6" t="n">
-        <v>13</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>87.13</v>
+        <v>48.67</v>
       </c>
       <c r="L6" t="n">
-        <v>3744.3</v>
+        <v>1527.07</v>
       </c>
     </row>
     <row r="7">
@@ -732,31 +732,31 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
+        <v>32</v>
+      </c>
+      <c r="F7" t="n">
         <v>30</v>
       </c>
-      <c r="F7" t="n">
-        <v>18</v>
-      </c>
       <c r="G7" t="n">
-        <v>69</v>
+        <v>27.75</v>
       </c>
       <c r="H7" t="n">
-        <v>69.4975</v>
+        <v>26.70708090036541</v>
       </c>
       <c r="I7" t="n">
-        <v>63.6325</v>
+        <v>23.77814522029033</v>
       </c>
       <c r="J7" t="n">
-        <v>28.0175</v>
+        <v>9.280000000000001</v>
       </c>
       <c r="K7" t="n">
-        <v>175.9525</v>
+        <v>25.1075</v>
       </c>
       <c r="L7" t="n">
-        <v>8046.5525</v>
+        <v>995.8699999999999</v>
       </c>
     </row>
     <row r="8">
@@ -779,28 +779,28 @@
         <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F8" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G8" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="H8" t="n">
-        <v>33.87</v>
+        <v>13.29432725486207</v>
       </c>
       <c r="I8" t="n">
-        <v>32.52999999999999</v>
+        <v>13.15708531561203</v>
       </c>
       <c r="J8" t="n">
-        <v>14.76</v>
+        <v>3.74</v>
       </c>
       <c r="K8" t="n">
-        <v>486.57</v>
+        <v>6.65</v>
       </c>
       <c r="L8" t="n">
-        <v>5623.93</v>
+        <v>814.05</v>
       </c>
     </row>
     <row r="9">
@@ -820,31 +820,31 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F9" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G9" t="n">
-        <v>78</v>
+        <v>36.5</v>
       </c>
       <c r="H9" t="n">
-        <v>77.8</v>
+        <v>35.61002094677631</v>
       </c>
       <c r="I9" t="n">
-        <v>71.935</v>
+        <v>33.81904901861144</v>
       </c>
       <c r="J9" t="n">
-        <v>29.21</v>
+        <v>11.41</v>
       </c>
       <c r="K9" t="n">
-        <v>137.945</v>
+        <v>28.575</v>
       </c>
       <c r="L9" t="n">
-        <v>8453.055</v>
+        <v>1489.095</v>
       </c>
     </row>
     <row r="10">
@@ -864,31 +864,31 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E10" t="n">
+        <v>33</v>
+      </c>
+      <c r="F10" t="n">
         <v>31</v>
       </c>
-      <c r="F10" t="n">
-        <v>20</v>
-      </c>
       <c r="G10" t="n">
-        <v>89.5</v>
+        <v>39.5</v>
       </c>
       <c r="H10" t="n">
-        <v>89.87</v>
+        <v>37.48118625374406</v>
       </c>
       <c r="I10" t="n">
-        <v>78.47</v>
+        <v>32.31613656729445</v>
       </c>
       <c r="J10" t="n">
-        <v>35.105</v>
+        <v>12.67</v>
       </c>
       <c r="K10" t="n">
-        <v>132.75</v>
+        <v>23.195</v>
       </c>
       <c r="L10" t="n">
-        <v>9622.700000000001</v>
+        <v>1337.01</v>
       </c>
     </row>
     <row r="11">
@@ -908,31 +908,31 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E11" t="n">
+        <v>32</v>
+      </c>
+      <c r="F11" t="n">
         <v>30</v>
       </c>
-      <c r="F11" t="n">
-        <v>18</v>
-      </c>
       <c r="G11" t="n">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="H11" t="n">
-        <v>97.92</v>
+        <v>36.79391028851607</v>
       </c>
       <c r="I11" t="n">
-        <v>82.16</v>
+        <v>34.1949615403443</v>
       </c>
       <c r="J11" t="n">
-        <v>42.33</v>
+        <v>12.83</v>
       </c>
       <c r="K11" t="n">
-        <v>177.19</v>
+        <v>25.02</v>
       </c>
       <c r="L11" t="n">
-        <v>13312.44</v>
+        <v>1276.1</v>
       </c>
     </row>
     <row r="12">
@@ -952,31 +952,31 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E12" t="n">
-        <v>30.5</v>
+        <v>28.5</v>
       </c>
       <c r="F12" t="n">
-        <v>18.5</v>
+        <v>26.5</v>
       </c>
       <c r="G12" t="n">
-        <v>87.75</v>
+        <v>36.75</v>
       </c>
       <c r="H12" t="n">
-        <v>87.86</v>
+        <v>36.03951805545365</v>
       </c>
       <c r="I12" t="n">
-        <v>78.89249999999998</v>
+        <v>33.72651754833618</v>
       </c>
       <c r="J12" t="n">
-        <v>37.28</v>
+        <v>11.595</v>
       </c>
       <c r="K12" t="n">
-        <v>182.6675</v>
+        <v>29.5125</v>
       </c>
       <c r="L12" t="n">
-        <v>10919.2025</v>
+        <v>1320.66</v>
       </c>
     </row>
     <row r="13">
@@ -996,31 +996,31 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E13" t="n">
+        <v>32</v>
+      </c>
+      <c r="F13" t="n">
         <v>30</v>
       </c>
-      <c r="F13" t="n">
-        <v>18</v>
-      </c>
       <c r="G13" t="n">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="H13" t="n">
-        <v>64.72</v>
+        <v>27.07958939152019</v>
       </c>
       <c r="I13" t="n">
-        <v>53.65</v>
+        <v>26.31266961338196</v>
       </c>
       <c r="J13" t="n">
-        <v>25.69</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="K13" t="n">
-        <v>162.86</v>
+        <v>28.9</v>
       </c>
       <c r="L13" t="n">
-        <v>6755.05</v>
+        <v>900.88</v>
       </c>
     </row>
     <row r="14">
@@ -1040,31 +1040,31 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>11.66666666666667</v>
+        <v>2</v>
       </c>
       <c r="E14" t="n">
+        <v>32</v>
+      </c>
+      <c r="F14" t="n">
         <v>30</v>
       </c>
-      <c r="F14" t="n">
-        <v>18.33333333333334</v>
-      </c>
       <c r="G14" t="n">
-        <v>71.33333333333333</v>
+        <v>29.5</v>
       </c>
       <c r="H14" t="n">
-        <v>71.765</v>
+        <v>29.85957669846027</v>
       </c>
       <c r="I14" t="n">
-        <v>66.00999999999999</v>
+        <v>27.16789191208524</v>
       </c>
       <c r="J14" t="n">
-        <v>28.465</v>
+        <v>8.688333333333334</v>
       </c>
       <c r="K14" t="n">
-        <v>198.6583333333333</v>
+        <v>15.42833333333333</v>
       </c>
       <c r="L14" t="n">
-        <v>8446.375</v>
+        <v>774.3900000000001</v>
       </c>
     </row>
     <row r="15">
@@ -1084,31 +1084,31 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E15" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G15" t="n">
-        <v>85.25</v>
+        <v>35.75</v>
       </c>
       <c r="H15" t="n">
-        <v>85.00999999999999</v>
+        <v>35.35811780491869</v>
       </c>
       <c r="I15" t="n">
-        <v>77.55249999999999</v>
+        <v>34.92637751942088</v>
       </c>
       <c r="J15" t="n">
-        <v>32.2575</v>
+        <v>11.4025</v>
       </c>
       <c r="K15" t="n">
-        <v>120.08</v>
+        <v>29.14</v>
       </c>
       <c r="L15" t="n">
-        <v>7847.18</v>
+        <v>1313.3625</v>
       </c>
     </row>
     <row r="16">
@@ -1128,31 +1128,31 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E16" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F16" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G16" t="n">
-        <v>106.5</v>
+        <v>43</v>
       </c>
       <c r="H16" t="n">
-        <v>106.98</v>
+        <v>41.55368849538977</v>
       </c>
       <c r="I16" t="n">
-        <v>101.785</v>
+        <v>39.99520014286202</v>
       </c>
       <c r="J16" t="n">
-        <v>43.455</v>
+        <v>14.34</v>
       </c>
       <c r="K16" t="n">
-        <v>126.445</v>
+        <v>43.81</v>
       </c>
       <c r="L16" t="n">
-        <v>11294.09</v>
+        <v>1790.095</v>
       </c>
     </row>
     <row r="17">
@@ -1172,31 +1172,31 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E17" t="n">
+        <v>30</v>
+      </c>
+      <c r="F17" t="n">
         <v>28</v>
       </c>
-      <c r="F17" t="n">
-        <v>18</v>
-      </c>
       <c r="G17" t="n">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="H17" t="n">
-        <v>87.86</v>
+        <v>36.87715457384766</v>
       </c>
       <c r="I17" t="n">
-        <v>76.13</v>
+        <v>32.47671713724356</v>
       </c>
       <c r="J17" t="n">
-        <v>34.1</v>
+        <v>11.18</v>
       </c>
       <c r="K17" t="n">
-        <v>128.32</v>
+        <v>13.63</v>
       </c>
       <c r="L17" t="n">
-        <v>10163.93</v>
+        <v>955.5</v>
       </c>
     </row>
     <row r="18">
@@ -1216,31 +1216,31 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E18" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F18" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G18" t="n">
-        <v>108</v>
+        <v>45.5</v>
       </c>
       <c r="H18" t="n">
-        <v>108.145</v>
+        <v>44.5148842044506</v>
       </c>
       <c r="I18" t="n">
-        <v>92.55500000000001</v>
+        <v>42.39372945700954</v>
       </c>
       <c r="J18" t="n">
-        <v>41.75</v>
+        <v>16.16</v>
       </c>
       <c r="K18" t="n">
-        <v>116.44</v>
+        <v>41.685</v>
       </c>
       <c r="L18" t="n">
-        <v>10874.43</v>
+        <v>2223.38</v>
       </c>
     </row>
     <row r="19">
@@ -1260,31 +1260,31 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E19" t="n">
+        <v>32</v>
+      </c>
+      <c r="F19" t="n">
         <v>30</v>
       </c>
-      <c r="F19" t="n">
-        <v>20</v>
-      </c>
       <c r="G19" t="n">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="H19" t="n">
-        <v>133.47</v>
+        <v>51.85345214260659</v>
       </c>
       <c r="I19" t="n">
-        <v>114.35</v>
+        <v>51.85345214260659</v>
       </c>
       <c r="J19" t="n">
-        <v>55.72</v>
+        <v>17.89</v>
       </c>
       <c r="K19" t="n">
-        <v>154.91</v>
+        <v>33.3</v>
       </c>
       <c r="L19" t="n">
-        <v>15440.16</v>
+        <v>1751.87</v>
       </c>
     </row>
     <row r="20">
@@ -1304,31 +1304,31 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E20" t="n">
         <v>30</v>
       </c>
       <c r="F20" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="G20" t="n">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="H20" t="n">
-        <v>78.47</v>
+        <v>33.88609227146581</v>
       </c>
       <c r="I20" t="n">
-        <v>67.06999999999999</v>
+        <v>33.88609227146581</v>
       </c>
       <c r="J20" t="n">
-        <v>29.08</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="K20" t="n">
-        <v>146.41</v>
+        <v>15.78</v>
       </c>
       <c r="L20" t="n">
-        <v>7069.06</v>
+        <v>937.85</v>
       </c>
     </row>
     <row r="21">
@@ -1348,31 +1348,31 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E21" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G21" t="n">
-        <v>109</v>
+        <v>65.5</v>
       </c>
       <c r="H21" t="n">
-        <v>109.66</v>
+        <v>64.10655120101137</v>
       </c>
       <c r="I21" t="n">
-        <v>96.08500000000001</v>
+        <v>52.03237321817214</v>
       </c>
       <c r="J21" t="n">
-        <v>32.62</v>
+        <v>19.24</v>
       </c>
       <c r="K21" t="n">
-        <v>87.22</v>
+        <v>31.635</v>
       </c>
       <c r="L21" t="n">
-        <v>4879.31</v>
+        <v>2055.65</v>
       </c>
     </row>
     <row r="22">
@@ -1392,31 +1392,31 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E22" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F22" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G22" t="n">
-        <v>110.5</v>
+        <v>47</v>
       </c>
       <c r="H22" t="n">
-        <v>111.005</v>
+        <v>46.5603841431676</v>
       </c>
       <c r="I22" t="n">
-        <v>104.805</v>
+        <v>45.10835993506403</v>
       </c>
       <c r="J22" t="n">
-        <v>44.49</v>
+        <v>14.98</v>
       </c>
       <c r="K22" t="n">
-        <v>150.655</v>
+        <v>34.025</v>
       </c>
       <c r="L22" t="n">
-        <v>12885.505</v>
+        <v>1829.245</v>
       </c>
     </row>
     <row r="23">
@@ -1436,31 +1436,31 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E23" t="n">
         <v>30</v>
       </c>
       <c r="F23" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="G23" t="n">
-        <v>156</v>
+        <v>62</v>
       </c>
       <c r="H23" t="n">
-        <v>156.27</v>
+        <v>61.58991270946142</v>
       </c>
       <c r="I23" t="n">
-        <v>143.53</v>
+        <v>61.58991270946142</v>
       </c>
       <c r="J23" t="n">
-        <v>61.66</v>
+        <v>18.71</v>
       </c>
       <c r="K23" t="n">
-        <v>115.21</v>
+        <v>31.05</v>
       </c>
       <c r="L23" t="n">
-        <v>15174.66</v>
+        <v>2480.36</v>
       </c>
     </row>
     <row r="24">
@@ -1480,31 +1480,31 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E24" t="n">
+        <v>32</v>
+      </c>
+      <c r="F24" t="n">
         <v>30</v>
       </c>
-      <c r="F24" t="n">
-        <v>20</v>
-      </c>
       <c r="G24" t="n">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="H24" t="n">
-        <v>85.18000000000001</v>
+        <v>30.2652756327663</v>
       </c>
       <c r="I24" t="n">
-        <v>79.14</v>
+        <v>26.69714947367789</v>
       </c>
       <c r="J24" t="n">
-        <v>37.09</v>
+        <v>11.32</v>
       </c>
       <c r="K24" t="n">
-        <v>197.67</v>
+        <v>32.63</v>
       </c>
       <c r="L24" t="n">
-        <v>10907.08</v>
+        <v>1106.22</v>
       </c>
     </row>
     <row r="25">
@@ -1524,31 +1524,31 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>9.333333333333334</v>
+        <v>2</v>
       </c>
       <c r="E25" t="n">
-        <v>30.66666666666667</v>
+        <v>31.33333333333333</v>
       </c>
       <c r="F25" t="n">
-        <v>21.33333333333333</v>
+        <v>29.33333333333333</v>
       </c>
       <c r="G25" t="n">
-        <v>106.8333333333333</v>
+        <v>43</v>
       </c>
       <c r="H25" t="n">
-        <v>107.1983333333333</v>
+        <v>41.37278946377435</v>
       </c>
       <c r="I25" t="n">
-        <v>96.3</v>
+        <v>40.53719853924488</v>
       </c>
       <c r="J25" t="n">
-        <v>43.17833333333333</v>
+        <v>14.12</v>
       </c>
       <c r="K25" t="n">
-        <v>148.4216666666667</v>
+        <v>23.545</v>
       </c>
       <c r="L25" t="n">
-        <v>11844.40833333333</v>
+        <v>1548.331666666667</v>
       </c>
     </row>
     <row r="26">
@@ -1568,31 +1568,31 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E26" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F26" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G26" t="n">
-        <v>101</v>
+        <v>46.5</v>
       </c>
       <c r="H26" t="n">
-        <v>101.615</v>
+        <v>45.74078271266448</v>
       </c>
       <c r="I26" t="n">
-        <v>89.88</v>
+        <v>43.79088025050888</v>
       </c>
       <c r="J26" t="n">
-        <v>38.855</v>
+        <v>15.915</v>
       </c>
       <c r="K26" t="n">
-        <v>124.995</v>
+        <v>40.72499999999999</v>
       </c>
       <c r="L26" t="n">
-        <v>9964.129999999999</v>
+        <v>2212.58</v>
       </c>
     </row>
     <row r="27">
@@ -1612,31 +1612,31 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E27" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F27" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G27" t="n">
-        <v>105.5</v>
+        <v>40</v>
       </c>
       <c r="H27" t="n">
-        <v>106.14</v>
+        <v>39.9910948823381</v>
       </c>
       <c r="I27" t="n">
-        <v>96.08</v>
+        <v>37.79222980740123</v>
       </c>
       <c r="J27" t="n">
-        <v>44.98</v>
+        <v>13.45</v>
       </c>
       <c r="K27" t="n">
-        <v>177.99</v>
+        <v>35.435</v>
       </c>
       <c r="L27" t="n">
-        <v>12782.315</v>
+        <v>1558.955</v>
       </c>
     </row>
     <row r="28">
@@ -1656,31 +1656,31 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E28" t="n">
+        <v>32</v>
+      </c>
+      <c r="F28" t="n">
         <v>30</v>
       </c>
-      <c r="F28" t="n">
-        <v>18</v>
-      </c>
       <c r="G28" t="n">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="H28" t="n">
-        <v>83.16</v>
+        <v>36.65535835810059</v>
       </c>
       <c r="I28" t="n">
-        <v>68.06999999999999</v>
+        <v>36.03116282464502</v>
       </c>
       <c r="J28" t="n">
-        <v>29.64</v>
+        <v>12.22</v>
       </c>
       <c r="K28" t="n">
-        <v>88.15000000000001</v>
+        <v>37.99</v>
       </c>
       <c r="L28" t="n">
-        <v>6467.83</v>
+        <v>1396.3</v>
       </c>
     </row>
     <row r="29">
@@ -1709,22 +1709,22 @@
         <v>28</v>
       </c>
       <c r="G29" t="n">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="H29" t="n">
-        <v>91.55</v>
+        <v>37.1139849496659</v>
       </c>
       <c r="I29" t="n">
-        <v>83.84</v>
+        <v>33.43828079471414</v>
       </c>
       <c r="J29" t="n">
-        <v>36.4</v>
+        <v>10.41</v>
       </c>
       <c r="K29" t="n">
-        <v>157.29</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="L29" t="n">
-        <v>10504.11</v>
+        <v>1100.22</v>
       </c>
     </row>
     <row r="30">
@@ -1744,31 +1744,31 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E30" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F30" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G30" t="n">
-        <v>186.5</v>
+        <v>86</v>
       </c>
       <c r="H30" t="n">
-        <v>186.96</v>
+        <v>83.67018536594581</v>
       </c>
       <c r="I30" t="n">
-        <v>171.87</v>
+        <v>72.80849127215086</v>
       </c>
       <c r="J30" t="n">
-        <v>86.43000000000001</v>
+        <v>28.755</v>
       </c>
       <c r="K30" t="n">
-        <v>200.74</v>
+        <v>45.785</v>
       </c>
       <c r="L30" t="n">
-        <v>26424.38</v>
+        <v>4421.905000000001</v>
       </c>
     </row>
     <row r="31">
@@ -1788,31 +1788,31 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E31" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F31" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G31" t="n">
-        <v>159</v>
+        <v>71</v>
       </c>
       <c r="H31" t="n">
-        <v>159.63</v>
+        <v>64.95735375722688</v>
       </c>
       <c r="I31" t="n">
-        <v>133.14</v>
+        <v>58.47035590841362</v>
       </c>
       <c r="J31" t="n">
-        <v>70.09</v>
+        <v>25.72</v>
       </c>
       <c r="K31" t="n">
-        <v>153.54</v>
+        <v>64.94</v>
       </c>
       <c r="L31" t="n">
-        <v>17231.25</v>
+        <v>4534.51</v>
       </c>
     </row>
     <row r="32">
@@ -1832,31 +1832,31 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E32" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F32" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G32" t="n">
-        <v>248</v>
+        <v>119.25</v>
       </c>
       <c r="H32" t="n">
-        <v>247.91</v>
+        <v>113.5355978647551</v>
       </c>
       <c r="I32" t="n">
-        <v>226.285</v>
+        <v>102.6187257347885</v>
       </c>
       <c r="J32" t="n">
-        <v>99.14750000000001</v>
+        <v>39.5275</v>
       </c>
       <c r="K32" t="n">
-        <v>160.0625</v>
+        <v>42.8075</v>
       </c>
       <c r="L32" t="n">
-        <v>26942.065</v>
+        <v>5969.127500000001</v>
       </c>
     </row>
     <row r="33">
@@ -1876,31 +1876,31 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E33" t="n">
+        <v>32</v>
+      </c>
+      <c r="F33" t="n">
         <v>30</v>
       </c>
-      <c r="F33" t="n">
-        <v>20</v>
-      </c>
       <c r="G33" t="n">
-        <v>250</v>
+        <v>143</v>
       </c>
       <c r="H33" t="n">
-        <v>250.18</v>
+        <v>130.7115225493653</v>
       </c>
       <c r="I33" t="n">
-        <v>234.76</v>
+        <v>120.4072559039201</v>
       </c>
       <c r="J33" t="n">
-        <v>81.47</v>
+        <v>46.91</v>
       </c>
       <c r="K33" t="n">
-        <v>92.98999999999999</v>
+        <v>26.99</v>
       </c>
       <c r="L33" t="n">
-        <v>17480.66</v>
+        <v>4245.61</v>
       </c>
     </row>
     <row r="34">
@@ -1920,31 +1920,31 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E34" t="n">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="F34" t="n">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G34" t="n">
-        <v>251</v>
+        <v>111</v>
       </c>
       <c r="H34" t="n">
-        <v>250.84</v>
+        <v>109.9967076976229</v>
       </c>
       <c r="I34" t="n">
-        <v>214.96</v>
+        <v>109.9967076976229</v>
       </c>
       <c r="J34" t="n">
-        <v>111.18</v>
+        <v>42.08</v>
       </c>
       <c r="K34" t="n">
-        <v>151.64</v>
+        <v>47.33</v>
       </c>
       <c r="L34" t="n">
-        <v>25300.9</v>
+        <v>6373.27</v>
       </c>
     </row>
     <row r="35">
@@ -1964,31 +1964,31 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E35" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="F35" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G35" t="n">
-        <v>237.5</v>
+        <v>108</v>
       </c>
       <c r="H35" t="n">
-        <v>231.065</v>
+        <v>106.5355754655067</v>
       </c>
       <c r="I35" t="n">
-        <v>229.72</v>
+        <v>97.0874448510065</v>
       </c>
       <c r="J35" t="n">
-        <v>96.065</v>
+        <v>35.72</v>
       </c>
       <c r="K35" t="n">
-        <v>90.995</v>
+        <v>52.52</v>
       </c>
       <c r="L35" t="n">
-        <v>22737.715</v>
+        <v>5476.32</v>
       </c>
     </row>
     <row r="36">
@@ -2008,31 +2008,31 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E36" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="F36" t="n">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="G36" t="n">
-        <v>299</v>
+        <v>101</v>
       </c>
       <c r="H36" t="n">
-        <v>298.8</v>
+        <v>99.95367834267238</v>
       </c>
       <c r="I36" t="n">
-        <v>282.37</v>
+        <v>94.60637714139042</v>
       </c>
       <c r="J36" t="n">
-        <v>81.89</v>
+        <v>33.185</v>
       </c>
       <c r="K36" t="n">
-        <v>44.95</v>
+        <v>55.44</v>
       </c>
       <c r="L36" t="n">
-        <v>11856.75</v>
+        <v>3086.445</v>
       </c>
     </row>
     <row r="37">
@@ -2052,31 +2052,31 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>11.33333333333333</v>
+        <v>2</v>
       </c>
       <c r="E37" t="n">
-        <v>31.33333333333333</v>
+        <v>28</v>
       </c>
       <c r="F37" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G37" t="n">
-        <v>183</v>
+        <v>78.33333333333333</v>
       </c>
       <c r="H37" t="n">
-        <v>183.2166666666667</v>
+        <v>74.57517676700242</v>
       </c>
       <c r="I37" t="n">
-        <v>160.0766666666667</v>
+        <v>70.66362698429181</v>
       </c>
       <c r="J37" t="n">
-        <v>75.92666666666666</v>
+        <v>27.99</v>
       </c>
       <c r="K37" t="n">
-        <v>154.68</v>
+        <v>39.51333333333333</v>
       </c>
       <c r="L37" t="n">
-        <v>20742.03333333333</v>
+        <v>3732.513333333334</v>
       </c>
     </row>
     <row r="38">
@@ -2096,31 +2096,31 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E38" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F38" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G38" t="n">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="H38" t="n">
-        <v>86.84999999999999</v>
+        <v>34.692940575509</v>
       </c>
       <c r="I38" t="n">
-        <v>86.18000000000001</v>
+        <v>29.04371331668617</v>
       </c>
       <c r="J38" t="n">
-        <v>39.85</v>
+        <v>14.05</v>
       </c>
       <c r="K38" t="n">
-        <v>195.87</v>
+        <v>43.38</v>
       </c>
       <c r="L38" t="n">
-        <v>12143.53</v>
+        <v>1834.96</v>
       </c>
     </row>
     <row r="39">
@@ -2140,31 +2140,31 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E39" t="n">
-        <v>32</v>
+        <v>30.5</v>
       </c>
       <c r="F39" t="n">
-        <v>19</v>
+        <v>28.5</v>
       </c>
       <c r="G39" t="n">
-        <v>159.5</v>
+        <v>79.5</v>
       </c>
       <c r="H39" t="n">
-        <v>159.465</v>
+        <v>75.81757455991648</v>
       </c>
       <c r="I39" t="n">
-        <v>142.28</v>
+        <v>62.59841066165627</v>
       </c>
       <c r="J39" t="n">
-        <v>56.9175</v>
+        <v>25.1425</v>
       </c>
       <c r="K39" t="n">
-        <v>134.085</v>
+        <v>34.67</v>
       </c>
       <c r="L39" t="n">
-        <v>14765.0175</v>
+        <v>3220.3375</v>
       </c>
     </row>
     <row r="40">
@@ -2184,31 +2184,31 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E40" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F40" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G40" t="n">
-        <v>312</v>
+        <v>183</v>
       </c>
       <c r="H40" t="n">
-        <v>312.89</v>
+        <v>179.6598565617463</v>
       </c>
       <c r="I40" t="n">
-        <v>312.89</v>
+        <v>169.8854835883062</v>
       </c>
       <c r="J40" t="n">
-        <v>88.61</v>
+        <v>58.81</v>
       </c>
       <c r="K40" t="n">
-        <v>53.59</v>
+        <v>36.36</v>
       </c>
       <c r="L40" t="n">
-        <v>17102.59</v>
+        <v>7754.48</v>
       </c>
     </row>
     <row r="41">
@@ -2228,31 +2228,31 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E41" t="n">
-        <v>31.5</v>
+        <v>18</v>
       </c>
       <c r="F41" t="n">
-        <v>21.5</v>
+        <v>16</v>
       </c>
       <c r="G41" t="n">
-        <v>226.25</v>
+        <v>111.5</v>
       </c>
       <c r="H41" t="n">
-        <v>226.1925</v>
+        <v>108.5863293499438</v>
       </c>
       <c r="I41" t="n">
-        <v>199.37</v>
+        <v>96.65267802652679</v>
       </c>
       <c r="J41" t="n">
-        <v>96.1825</v>
+        <v>37.3725</v>
       </c>
       <c r="K41" t="n">
-        <v>161.8675</v>
+        <v>43.3425</v>
       </c>
       <c r="L41" t="n">
-        <v>25734.715</v>
+        <v>5305.1675</v>
       </c>
     </row>
     <row r="42">
@@ -2272,31 +2272,31 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E42" t="n">
+        <v>18</v>
+      </c>
+      <c r="F42" t="n">
+        <v>16</v>
+      </c>
+      <c r="G42" t="n">
+        <v>89</v>
+      </c>
+      <c r="H42" t="n">
+        <v>87.46482733403951</v>
+      </c>
+      <c r="I42" t="n">
+        <v>72.92630677718111</v>
+      </c>
+      <c r="J42" t="n">
         <v>30</v>
       </c>
-      <c r="F42" t="n">
-        <v>20</v>
-      </c>
-      <c r="G42" t="n">
-        <v>206</v>
-      </c>
-      <c r="H42" t="n">
-        <v>206.58</v>
-      </c>
-      <c r="I42" t="n">
-        <v>170.7</v>
-      </c>
-      <c r="J42" t="n">
-        <v>87.48</v>
-      </c>
       <c r="K42" t="n">
-        <v>166.42</v>
+        <v>41.43</v>
       </c>
       <c r="L42" t="n">
-        <v>23805.73</v>
+        <v>4296.01</v>
       </c>
     </row>
     <row r="43">
@@ -2316,31 +2316,31 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E43" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F43" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G43" t="n">
-        <v>182</v>
+        <v>82</v>
       </c>
       <c r="H43" t="n">
-        <v>181.09</v>
+        <v>79.37157771320014</v>
       </c>
       <c r="I43" t="n">
-        <v>152.92</v>
+        <v>67.33695936736309</v>
       </c>
       <c r="J43" t="n">
-        <v>71.815</v>
+        <v>27.405</v>
       </c>
       <c r="K43" t="n">
-        <v>150.605</v>
+        <v>35.86499999999999</v>
       </c>
       <c r="L43" t="n">
-        <v>19618.125</v>
+        <v>3345.415</v>
       </c>
     </row>
     <row r="44">
@@ -2360,31 +2360,31 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E44" t="n">
-        <v>30.66666666666667</v>
+        <v>22.33333333333333</v>
       </c>
       <c r="F44" t="n">
-        <v>20.66666666666667</v>
+        <v>20.33333333333333</v>
       </c>
       <c r="G44" t="n">
-        <v>206.5</v>
+        <v>96.16666666666667</v>
       </c>
       <c r="H44" t="n">
-        <v>207.025</v>
+        <v>91.31900445526388</v>
       </c>
       <c r="I44" t="n">
-        <v>181.8183333333334</v>
+        <v>74.94708301810603</v>
       </c>
       <c r="J44" t="n">
-        <v>78.845</v>
+        <v>32.735</v>
       </c>
       <c r="K44" t="n">
-        <v>118.5566666666667</v>
+        <v>55.89833333333333</v>
       </c>
       <c r="L44" t="n">
-        <v>17546.71</v>
+        <v>4523.25</v>
       </c>
     </row>
     <row r="45">
@@ -2404,31 +2404,31 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E45" t="n">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="F45" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G45" t="n">
-        <v>226.5</v>
+        <v>96</v>
       </c>
       <c r="H45" t="n">
-        <v>216.81</v>
+        <v>93.854724498978</v>
       </c>
       <c r="I45" t="n">
-        <v>207.08</v>
+        <v>90.53158744283327</v>
       </c>
       <c r="J45" t="n">
-        <v>88.78</v>
+        <v>33.09</v>
       </c>
       <c r="K45" t="n">
-        <v>110.855</v>
+        <v>55.44</v>
       </c>
       <c r="L45" t="n">
-        <v>19578.365</v>
+        <v>5152.42</v>
       </c>
     </row>
     <row r="46">
@@ -2448,31 +2448,31 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E46" t="n">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="F46" t="n">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="G46" t="n">
-        <v>251</v>
+        <v>110</v>
       </c>
       <c r="H46" t="n">
-        <v>251.18</v>
+        <v>106.2515261101972</v>
       </c>
       <c r="I46" t="n">
-        <v>212.95</v>
+        <v>99.44980825950968</v>
       </c>
       <c r="J46" t="n">
-        <v>99.36</v>
+        <v>41.26</v>
       </c>
       <c r="K46" t="n">
-        <v>72.20999999999999</v>
+        <v>55.04</v>
       </c>
       <c r="L46" t="n">
-        <v>16373.61</v>
+        <v>6939.63</v>
       </c>
     </row>
     <row r="47">
@@ -2492,31 +2492,31 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E47" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F47" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G47" t="n">
-        <v>223</v>
+        <v>102.5</v>
       </c>
       <c r="H47" t="n">
-        <v>223.515</v>
+        <v>99.72173769434531</v>
       </c>
       <c r="I47" t="n">
-        <v>184.95</v>
+        <v>92.52676305190607</v>
       </c>
       <c r="J47" t="n">
-        <v>87.30500000000001</v>
+        <v>35.72</v>
       </c>
       <c r="K47" t="n">
-        <v>102.915</v>
+        <v>36.615</v>
       </c>
       <c r="L47" t="n">
-        <v>19200.59</v>
+        <v>4269.9</v>
       </c>
     </row>
     <row r="48">
@@ -2536,31 +2536,31 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E48" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F48" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G48" t="n">
-        <v>276.5</v>
+        <v>137</v>
       </c>
       <c r="H48" t="n">
-        <v>276.5</v>
+        <v>131.2630190390913</v>
       </c>
       <c r="I48" t="n">
-        <v>271.81</v>
+        <v>134.0697263200833</v>
       </c>
       <c r="J48" t="n">
-        <v>89.075</v>
+        <v>44.40000000000001</v>
       </c>
       <c r="K48" t="n">
-        <v>68.86</v>
+        <v>33.305</v>
       </c>
       <c r="L48" t="n">
-        <v>16403.045</v>
+        <v>4854.77</v>
       </c>
     </row>
     <row r="49">
@@ -2580,31 +2580,31 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E49" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F49" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G49" t="n">
-        <v>170</v>
+        <v>83</v>
       </c>
       <c r="H49" t="n">
-        <v>169.69</v>
+        <v>79.73374110489735</v>
       </c>
       <c r="I49" t="n">
-        <v>150.24</v>
+        <v>65.47929746528359</v>
       </c>
       <c r="J49" t="n">
-        <v>63.34</v>
+        <v>27.95</v>
       </c>
       <c r="K49" t="n">
-        <v>96.90000000000001</v>
+        <v>63.85</v>
       </c>
       <c r="L49" t="n">
-        <v>13351.68</v>
+        <v>4441.71</v>
       </c>
     </row>
     <row r="50">
@@ -2624,31 +2624,31 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E50" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F50" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G50" t="n">
-        <v>139</v>
+        <v>58</v>
       </c>
       <c r="H50" t="n">
-        <v>139.17</v>
+        <v>55.89726241208218</v>
       </c>
       <c r="I50" t="n">
-        <v>122.4</v>
+        <v>54.82421742710823</v>
       </c>
       <c r="J50" t="n">
-        <v>56.36</v>
+        <v>20.2</v>
       </c>
       <c r="K50" t="n">
-        <v>124.24</v>
+        <v>43.22</v>
       </c>
       <c r="L50" t="n">
-        <v>13350.31</v>
+        <v>2962.44</v>
       </c>
     </row>
     <row r="51">
@@ -2668,31 +2668,31 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E51" t="n">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="F51" t="n">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="G51" t="n">
-        <v>232.5</v>
+        <v>99</v>
       </c>
       <c r="H51" t="n">
-        <v>203.895</v>
+        <v>94.06524484290816</v>
       </c>
       <c r="I51" t="n">
-        <v>198.025</v>
+        <v>83.97255651378427</v>
       </c>
       <c r="J51" t="n">
-        <v>96.49000000000001</v>
+        <v>33.675</v>
       </c>
       <c r="K51" t="n">
-        <v>125.21</v>
+        <v>54.235</v>
       </c>
       <c r="L51" t="n">
-        <v>21851.71</v>
+        <v>5280.835</v>
       </c>
     </row>
     <row r="52">
@@ -2712,31 +2712,31 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E52" t="n">
-        <v>30.33333333333333</v>
+        <v>25.33333333333333</v>
       </c>
       <c r="F52" t="n">
-        <v>20.33333333333333</v>
+        <v>23.33333333333333</v>
       </c>
       <c r="G52" t="n">
-        <v>200.5</v>
+        <v>91.83333333333333</v>
       </c>
       <c r="H52" t="n">
-        <v>200.82</v>
+        <v>90.30098681760269</v>
       </c>
       <c r="I52" t="n">
-        <v>165.1083333333333</v>
+        <v>79.6137224604699</v>
       </c>
       <c r="J52" t="n">
-        <v>78.7</v>
+        <v>30.76</v>
       </c>
       <c r="K52" t="n">
-        <v>116.1833333333333</v>
+        <v>37.99166666666667</v>
       </c>
       <c r="L52" t="n">
-        <v>18281.18833333334</v>
+        <v>3790.938333333334</v>
       </c>
     </row>
     <row r="53">
@@ -2756,31 +2756,31 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E53" t="n">
-        <v>27.5</v>
+        <v>18</v>
       </c>
       <c r="F53" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="G53" t="n">
-        <v>189</v>
+        <v>88.75</v>
       </c>
       <c r="H53" t="n">
-        <v>188.9775</v>
+        <v>83.90813372170328</v>
       </c>
       <c r="I53" t="n">
-        <v>164.245</v>
+        <v>73.23064562607388</v>
       </c>
       <c r="J53" t="n">
-        <v>75.315</v>
+        <v>30.2675</v>
       </c>
       <c r="K53" t="n">
-        <v>106.2175</v>
+        <v>49.36499999999999</v>
       </c>
       <c r="L53" t="n">
-        <v>17052.76</v>
+        <v>4791.922500000001</v>
       </c>
     </row>
     <row r="54">
@@ -2800,31 +2800,31 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E54" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F54" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G54" t="n">
-        <v>180</v>
+        <v>76</v>
       </c>
       <c r="H54" t="n">
-        <v>180.08</v>
+        <v>74.49122293726249</v>
       </c>
       <c r="I54" t="n">
-        <v>170.69</v>
+        <v>74.49122293726249</v>
       </c>
       <c r="J54" t="n">
-        <v>66.48</v>
+        <v>23.41</v>
       </c>
       <c r="K54" t="n">
-        <v>134.82</v>
+        <v>20.02</v>
       </c>
       <c r="L54" t="n">
-        <v>16123.5</v>
+        <v>2279.12</v>
       </c>
     </row>
     <row r="55">
@@ -2844,31 +2844,31 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E55" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F55" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G55" t="n">
-        <v>194</v>
+        <v>87</v>
       </c>
       <c r="H55" t="n">
-        <v>194.84</v>
+        <v>81.12670331244388</v>
       </c>
       <c r="I55" t="n">
-        <v>179.75</v>
+        <v>68.19635100725603</v>
       </c>
       <c r="J55" t="n">
-        <v>81.68000000000001</v>
+        <v>29.4</v>
       </c>
       <c r="K55" t="n">
-        <v>157.37</v>
+        <v>44.08</v>
       </c>
       <c r="L55" t="n">
-        <v>20143.85</v>
+        <v>4181.98</v>
       </c>
     </row>
     <row r="56">
@@ -2888,31 +2888,31 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E56" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F56" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G56" t="n">
-        <v>188</v>
+        <v>96</v>
       </c>
       <c r="H56" t="n">
-        <v>188.47</v>
+        <v>92.71265036536886</v>
       </c>
       <c r="I56" t="n">
-        <v>174.05</v>
+        <v>77.32101493747103</v>
       </c>
       <c r="J56" t="n">
-        <v>74.48999999999999</v>
+        <v>31.72</v>
       </c>
       <c r="K56" t="n">
-        <v>111.95</v>
+        <v>45.28</v>
       </c>
       <c r="L56" t="n">
-        <v>17677.48</v>
+        <v>4157.56</v>
       </c>
     </row>
     <row r="57">
@@ -2932,31 +2932,31 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E57" t="n">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F57" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G57" t="n">
-        <v>124.5</v>
+        <v>59</v>
       </c>
       <c r="H57" t="n">
-        <v>124.42</v>
+        <v>56.55883428515158</v>
       </c>
       <c r="I57" t="n">
-        <v>108.325</v>
+        <v>47.83075787003979</v>
       </c>
       <c r="J57" t="n">
-        <v>50.975</v>
+        <v>20.31</v>
       </c>
       <c r="K57" t="n">
-        <v>120.545</v>
+        <v>50.65</v>
       </c>
       <c r="L57" t="n">
-        <v>11961.16</v>
+        <v>3190.26</v>
       </c>
     </row>
     <row r="58">
@@ -2976,31 +2976,31 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E58" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F58" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G58" t="n">
-        <v>173</v>
+        <v>82</v>
       </c>
       <c r="H58" t="n">
-        <v>173.21</v>
+        <v>81.52936758603394</v>
       </c>
       <c r="I58" t="n">
-        <v>153.085</v>
+        <v>79.24729555557188</v>
       </c>
       <c r="J58" t="n">
-        <v>66.98</v>
+        <v>27.535</v>
       </c>
       <c r="K58" t="n">
-        <v>113.57</v>
+        <v>40.795</v>
       </c>
       <c r="L58" t="n">
-        <v>16331.72</v>
+        <v>3776.805</v>
       </c>
     </row>
     <row r="59">
@@ -3020,31 +3020,31 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E59" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F59" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G59" t="n">
-        <v>138</v>
+        <v>69</v>
       </c>
       <c r="H59" t="n">
-        <v>138.675</v>
+        <v>63.88976201804039</v>
       </c>
       <c r="I59" t="n">
-        <v>133.145</v>
+        <v>60.32775704337822</v>
       </c>
       <c r="J59" t="n">
-        <v>50.645</v>
+        <v>21.805</v>
       </c>
       <c r="K59" t="n">
-        <v>89.39500000000001</v>
+        <v>46.34</v>
       </c>
       <c r="L59" t="n">
-        <v>10816.65</v>
+        <v>3155.02</v>
       </c>
     </row>
     <row r="60">
@@ -3064,31 +3064,31 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E60" t="n">
         <v>20</v>
       </c>
       <c r="F60" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G60" t="n">
-        <v>150</v>
+        <v>88</v>
       </c>
       <c r="H60" t="n">
-        <v>149.9</v>
+        <v>85.49072515085162</v>
       </c>
       <c r="I60" t="n">
-        <v>127.44</v>
+        <v>80.38290886161178</v>
       </c>
       <c r="J60" t="n">
-        <v>48.8</v>
+        <v>26.28</v>
       </c>
       <c r="K60" t="n">
-        <v>78.48</v>
+        <v>54.39</v>
       </c>
       <c r="L60" t="n">
-        <v>9582.67</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="61">
@@ -3108,31 +3108,31 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E61" t="n">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F61" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G61" t="n">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H61" t="n">
-        <v>97.255</v>
+        <v>92.72406248262513</v>
       </c>
       <c r="I61" t="n">
-        <v>91.38000000000001</v>
+        <v>77.9030693144562</v>
       </c>
       <c r="J61" t="n">
-        <v>30.225</v>
+        <v>30.01</v>
       </c>
       <c r="K61" t="n">
-        <v>124.99</v>
+        <v>32.6</v>
       </c>
       <c r="L61" t="n">
-        <v>5035.885</v>
+        <v>3923.92</v>
       </c>
     </row>
     <row r="62">
@@ -3152,31 +3152,31 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E62" t="n">
         <v>30</v>
       </c>
       <c r="F62" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="G62" t="n">
-        <v>163</v>
+        <v>78</v>
       </c>
       <c r="H62" t="n">
-        <v>163.32</v>
+        <v>71.60213370846034</v>
       </c>
       <c r="I62" t="n">
-        <v>144.2</v>
+        <v>68.97138176414914</v>
       </c>
       <c r="J62" t="n">
-        <v>47.02</v>
+        <v>25.18</v>
       </c>
       <c r="K62" t="n">
-        <v>56.96</v>
+        <v>29.14</v>
       </c>
       <c r="L62" t="n">
-        <v>8113.97</v>
+        <v>2541.2</v>
       </c>
     </row>
     <row r="63">
@@ -3196,31 +3196,31 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E63" t="n">
         <v>30</v>
       </c>
       <c r="F63" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="G63" t="n">
-        <v>171</v>
+        <v>83</v>
       </c>
       <c r="H63" t="n">
-        <v>171.37</v>
+        <v>82.62724291752032</v>
       </c>
       <c r="I63" t="n">
-        <v>150.58</v>
+        <v>80.94017739825928</v>
       </c>
       <c r="J63" t="n">
-        <v>48.31</v>
+        <v>26.94</v>
       </c>
       <c r="K63" t="n">
-        <v>31.06</v>
+        <v>23.7</v>
       </c>
       <c r="L63" t="n">
-        <v>6965.42</v>
+        <v>2594.65</v>
       </c>
     </row>
     <row r="64">
@@ -3240,31 +3240,31 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E64" t="n">
         <v>20</v>
       </c>
       <c r="F64" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G64" t="n">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="H64" t="n">
-        <v>135.82</v>
+        <v>71.14222974971777</v>
       </c>
       <c r="I64" t="n">
-        <v>127.1</v>
+        <v>71.14222974971777</v>
       </c>
       <c r="J64" t="n">
-        <v>47</v>
+        <v>23.63</v>
       </c>
       <c r="K64" t="n">
-        <v>67.93000000000001</v>
+        <v>42.88</v>
       </c>
       <c r="L64" t="n">
-        <v>9582.290000000001</v>
+        <v>3586.45</v>
       </c>
     </row>
     <row r="65">
@@ -3284,31 +3284,31 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E65" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F65" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G65" t="n">
-        <v>126.5</v>
+        <v>66.5</v>
       </c>
       <c r="H65" t="n">
-        <v>126.935</v>
+        <v>60.51161221041958</v>
       </c>
       <c r="I65" t="n">
-        <v>107.815</v>
+        <v>57.22720718866403</v>
       </c>
       <c r="J65" t="n">
-        <v>42.695</v>
+        <v>21.71</v>
       </c>
       <c r="K65" t="n">
-        <v>95.13499999999999</v>
+        <v>61.46</v>
       </c>
       <c r="L65" t="n">
-        <v>9194.15</v>
+        <v>3609.84</v>
       </c>
     </row>
     <row r="66">
@@ -3328,31 +3328,31 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E66" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F66" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G66" t="n">
-        <v>162.5</v>
+        <v>88.5</v>
       </c>
       <c r="H66" t="n">
-        <v>162.815</v>
+        <v>85.31085420818381</v>
       </c>
       <c r="I66" t="n">
-        <v>159.795</v>
+        <v>81.10539783484859</v>
       </c>
       <c r="J66" t="n">
-        <v>50.265</v>
+        <v>27.825</v>
       </c>
       <c r="K66" t="n">
-        <v>43.88500000000001</v>
+        <v>32.54</v>
       </c>
       <c r="L66" t="n">
-        <v>9090.959999999999</v>
+        <v>3615.985</v>
       </c>
     </row>
     <row r="67">
@@ -3372,31 +3372,31 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E67" t="n">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="F67" t="n">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="G67" t="n">
-        <v>143</v>
+        <v>65</v>
       </c>
       <c r="H67" t="n">
-        <v>139.84</v>
+        <v>60.54726081217567</v>
       </c>
       <c r="I67" t="n">
-        <v>142.86</v>
+        <v>53.71663242988635</v>
       </c>
       <c r="J67" t="n">
-        <v>56.84</v>
+        <v>22.47</v>
       </c>
       <c r="K67" t="n">
-        <v>96.06</v>
+        <v>55.65</v>
       </c>
       <c r="L67" t="n">
-        <v>10449.78</v>
+        <v>3430.23</v>
       </c>
     </row>
     <row r="68">
@@ -3416,31 +3416,31 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E68" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F68" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G68" t="n">
-        <v>99</v>
+        <v>52.5</v>
       </c>
       <c r="H68" t="n">
-        <v>99.26499999999999</v>
+        <v>51.28190052442572</v>
       </c>
       <c r="I68" t="n">
-        <v>88.36499999999999</v>
+        <v>48.07580113168764</v>
       </c>
       <c r="J68" t="n">
-        <v>34.915</v>
+        <v>18.025</v>
       </c>
       <c r="K68" t="n">
-        <v>101.885</v>
+        <v>47.40000000000001</v>
       </c>
       <c r="L68" t="n">
-        <v>8469.165000000001</v>
+        <v>2523.69</v>
       </c>
     </row>
     <row r="69">
@@ -3460,31 +3460,31 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E69" t="n">
-        <v>33.5</v>
+        <v>26</v>
       </c>
       <c r="F69" t="n">
-        <v>22.5</v>
+        <v>24</v>
       </c>
       <c r="G69" t="n">
-        <v>138</v>
+        <v>70</v>
       </c>
       <c r="H69" t="n">
-        <v>134.8925</v>
+        <v>67.64777266281172</v>
       </c>
       <c r="I69" t="n">
-        <v>131.1225</v>
+        <v>62.64510727456531</v>
       </c>
       <c r="J69" t="n">
-        <v>47.8525</v>
+        <v>23.6475</v>
       </c>
       <c r="K69" t="n">
-        <v>53.84</v>
+        <v>37.965</v>
       </c>
       <c r="L69" t="n">
-        <v>8906.385</v>
+        <v>2961.869999999999</v>
       </c>
     </row>
     <row r="70">
@@ -3504,31 +3504,31 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E70" t="n">
+        <v>32</v>
+      </c>
+      <c r="F70" t="n">
         <v>30</v>
       </c>
-      <c r="F70" t="n">
-        <v>24</v>
-      </c>
       <c r="G70" t="n">
-        <v>138</v>
+        <v>66</v>
       </c>
       <c r="H70" t="n">
-        <v>138.16</v>
+        <v>63.01043925096315</v>
       </c>
       <c r="I70" t="n">
-        <v>120.73</v>
+        <v>60.31679969977628</v>
       </c>
       <c r="J70" t="n">
-        <v>39.82</v>
+        <v>20.49</v>
       </c>
       <c r="K70" t="n">
-        <v>47.29</v>
+        <v>29.26</v>
       </c>
       <c r="L70" t="n">
-        <v>8078.89</v>
+        <v>1838.77</v>
       </c>
     </row>
     <row r="71">
@@ -3548,31 +3548,31 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E71" t="n">
-        <v>28</v>
+        <v>19.66666666666666</v>
       </c>
       <c r="F71" t="n">
-        <v>16</v>
+        <v>17.66666666666666</v>
       </c>
       <c r="G71" t="n">
-        <v>141.6666666666667</v>
+        <v>80.66666666666666</v>
       </c>
       <c r="H71" t="n">
-        <v>142.1883333333333</v>
+        <v>74.86329792950998</v>
       </c>
       <c r="I71" t="n">
-        <v>130.2833333333334</v>
+        <v>72.11818741808889</v>
       </c>
       <c r="J71" t="n">
-        <v>42.64333333333333</v>
+        <v>24.705</v>
       </c>
       <c r="K71" t="n">
-        <v>63.81666666666666</v>
+        <v>38.04333333333334</v>
       </c>
       <c r="L71" t="n">
-        <v>7850.111666666666</v>
+        <v>3426.996666666667</v>
       </c>
     </row>
     <row r="72">
@@ -3592,31 +3592,31 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E72" t="n">
         <v>18</v>
       </c>
       <c r="F72" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G72" t="n">
-        <v>112</v>
+        <v>54</v>
       </c>
       <c r="H72" t="n">
-        <v>112.68</v>
+        <v>46.60838020806955</v>
       </c>
       <c r="I72" t="n">
-        <v>101.61</v>
+        <v>45.50548823384586</v>
       </c>
       <c r="J72" t="n">
-        <v>41.45</v>
+        <v>16.8</v>
       </c>
       <c r="K72" t="n">
-        <v>93.56999999999999</v>
+        <v>42.67</v>
       </c>
       <c r="L72" t="n">
-        <v>10284.91</v>
+        <v>2527.21</v>
       </c>
     </row>
     <row r="73">
@@ -3636,31 +3636,31 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E73" t="n">
         <v>20</v>
       </c>
       <c r="F73" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G73" t="n">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="H73" t="n">
-        <v>121.06</v>
+        <v>68.506495392711</v>
       </c>
       <c r="I73" t="n">
-        <v>111</v>
+        <v>64.14140679385784</v>
       </c>
       <c r="J73" t="n">
-        <v>35.93</v>
+        <v>21.75</v>
       </c>
       <c r="K73" t="n">
-        <v>51.24</v>
+        <v>36.39</v>
       </c>
       <c r="L73" t="n">
-        <v>6213.36</v>
+        <v>2954.34</v>
       </c>
     </row>
     <row r="74">
@@ -3680,31 +3680,31 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E74" t="n">
+        <v>32.66666666666666</v>
+      </c>
+      <c r="F74" t="n">
         <v>30.66666666666667</v>
       </c>
-      <c r="F74" t="n">
-        <v>22.66666666666667</v>
-      </c>
       <c r="G74" t="n">
-        <v>116.6666666666667</v>
+        <v>57</v>
       </c>
       <c r="H74" t="n">
-        <v>116.8166666666667</v>
+        <v>56.92555495152623</v>
       </c>
       <c r="I74" t="n">
-        <v>100.9466666666667</v>
+        <v>49.43887445519065</v>
       </c>
       <c r="J74" t="n">
-        <v>36.00333333333333</v>
+        <v>17.67</v>
       </c>
       <c r="K74" t="n">
-        <v>76.82333333333334</v>
+        <v>23.67</v>
       </c>
       <c r="L74" t="n">
-        <v>7018.72</v>
+        <v>1793.153333333333</v>
       </c>
     </row>
     <row r="75">
@@ -3724,31 +3724,31 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E75" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F75" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G75" t="n">
-        <v>119</v>
+        <v>50.5</v>
       </c>
       <c r="H75" t="n">
-        <v>119.22</v>
+        <v>50.3416677193412</v>
       </c>
       <c r="I75" t="n">
-        <v>110.335</v>
+        <v>49.24425736851155</v>
       </c>
       <c r="J75" t="n">
-        <v>48.44</v>
+        <v>16.055</v>
       </c>
       <c r="K75" t="n">
-        <v>166.095</v>
+        <v>33.615</v>
       </c>
       <c r="L75" t="n">
-        <v>11844.96</v>
+        <v>1828.18</v>
       </c>
     </row>
     <row r="76">
@@ -3768,31 +3768,31 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E76" t="n">
+        <v>30</v>
+      </c>
+      <c r="F76" t="n">
         <v>28</v>
       </c>
-      <c r="F76" t="n">
-        <v>18</v>
-      </c>
       <c r="G76" t="n">
-        <v>146</v>
+        <v>58</v>
       </c>
       <c r="H76" t="n">
-        <v>146.55</v>
+        <v>55.20957861484356</v>
       </c>
       <c r="I76" t="n">
-        <v>114.02</v>
+        <v>55.20957861484356</v>
       </c>
       <c r="J76" t="n">
-        <v>60.73</v>
+        <v>21.08</v>
       </c>
       <c r="K76" t="n">
-        <v>105.68</v>
+        <v>33.52</v>
       </c>
       <c r="L76" t="n">
-        <v>15117.76</v>
+        <v>2607.98</v>
       </c>
     </row>
     <row r="77">
@@ -3812,31 +3812,31 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E77" t="n">
-        <v>29</v>
+        <v>30.5</v>
       </c>
       <c r="F77" t="n">
-        <v>19</v>
+        <v>28.5</v>
       </c>
       <c r="G77" t="n">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="H77" t="n">
-        <v>112.2575</v>
+        <v>45.34294935934766</v>
       </c>
       <c r="I77" t="n">
-        <v>96.75</v>
+        <v>45.28069517209907</v>
       </c>
       <c r="J77" t="n">
-        <v>45.1425</v>
+        <v>14.385</v>
       </c>
       <c r="K77" t="n">
-        <v>135.605</v>
+        <v>27.845</v>
       </c>
       <c r="L77" t="n">
-        <v>11089.5</v>
+        <v>1413.935</v>
       </c>
     </row>
     <row r="78">
@@ -3856,31 +3856,31 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E78" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F78" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G78" t="n">
-        <v>157</v>
+        <v>66.5</v>
       </c>
       <c r="H78" t="n">
-        <v>157.45</v>
+        <v>61.22113693769167</v>
       </c>
       <c r="I78" t="n">
-        <v>128.11</v>
+        <v>58.85752597358655</v>
       </c>
       <c r="J78" t="n">
-        <v>72.19499999999999</v>
+        <v>23.3</v>
       </c>
       <c r="K78" t="n">
-        <v>160.84</v>
+        <v>49.615</v>
       </c>
       <c r="L78" t="n">
-        <v>19651.475</v>
+        <v>3451.505</v>
       </c>
     </row>
     <row r="79">
@@ -3900,31 +3900,31 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E79" t="n">
         <v>28</v>
       </c>
       <c r="F79" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G79" t="n">
-        <v>116</v>
+        <v>47</v>
       </c>
       <c r="H79" t="n">
-        <v>116.03</v>
+        <v>44.57072617497598</v>
       </c>
       <c r="I79" t="n">
-        <v>97.25</v>
+        <v>44.57072617497598</v>
       </c>
       <c r="J79" t="n">
-        <v>42.11</v>
+        <v>14.84</v>
       </c>
       <c r="K79" t="n">
-        <v>90.12</v>
+        <v>40.05</v>
       </c>
       <c r="L79" t="n">
-        <v>8658.24</v>
+        <v>1753.86</v>
       </c>
     </row>
     <row r="80">
@@ -3944,31 +3944,31 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E80" t="n">
+        <v>32</v>
+      </c>
+      <c r="F80" t="n">
         <v>30</v>
       </c>
-      <c r="F80" t="n">
-        <v>20</v>
-      </c>
       <c r="G80" t="n">
-        <v>148</v>
+        <v>56</v>
       </c>
       <c r="H80" t="n">
-        <v>148.23</v>
+        <v>55.9885468929738</v>
       </c>
       <c r="I80" t="n">
-        <v>139.18</v>
+        <v>55.9885468929738</v>
       </c>
       <c r="J80" t="n">
-        <v>57.92</v>
+        <v>18.59</v>
       </c>
       <c r="K80" t="n">
-        <v>104.72</v>
+        <v>21.27</v>
       </c>
       <c r="L80" t="n">
-        <v>12618.77</v>
+        <v>1635.4</v>
       </c>
     </row>
     <row r="81">
@@ -3988,31 +3988,31 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E81" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F81" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="G81" t="n">
-        <v>124</v>
+        <v>51.5</v>
       </c>
       <c r="H81" t="n">
-        <v>124.245</v>
+        <v>50.85033893234626</v>
       </c>
       <c r="I81" t="n">
-        <v>108.99</v>
+        <v>49.9574719551843</v>
       </c>
       <c r="J81" t="n">
-        <v>48.25</v>
+        <v>16.84</v>
       </c>
       <c r="K81" t="n">
-        <v>133.645</v>
+        <v>29.225</v>
       </c>
       <c r="L81" t="n">
-        <v>12250.94</v>
+        <v>1889.43</v>
       </c>
     </row>
     <row r="82">
@@ -4032,31 +4032,31 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E82" t="n">
+        <v>32</v>
+      </c>
+      <c r="F82" t="n">
         <v>30</v>
       </c>
-      <c r="F82" t="n">
-        <v>20</v>
-      </c>
       <c r="G82" t="n">
-        <v>153</v>
+        <v>62</v>
       </c>
       <c r="H82" t="n">
-        <v>153.93</v>
+        <v>62.02095992127803</v>
       </c>
       <c r="I82" t="n">
-        <v>140.85</v>
+        <v>62.02095992127803</v>
       </c>
       <c r="J82" t="n">
-        <v>61.1</v>
+        <v>22.01</v>
       </c>
       <c r="K82" t="n">
-        <v>117.26</v>
+        <v>41.57</v>
       </c>
       <c r="L82" t="n">
-        <v>15011.63</v>
+        <v>2727.98</v>
       </c>
     </row>
     <row r="83">
@@ -4076,31 +4076,31 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E83" t="n">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F83" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G83" t="n">
-        <v>163.5</v>
+        <v>58</v>
       </c>
       <c r="H83" t="n">
-        <v>141.69</v>
+        <v>56.6406125573895</v>
       </c>
       <c r="I83" t="n">
-        <v>156.28</v>
+        <v>55.91634763724687</v>
       </c>
       <c r="J83" t="n">
-        <v>65.61500000000001</v>
+        <v>20.965</v>
       </c>
       <c r="K83" t="n">
-        <v>124.735</v>
+        <v>48.575</v>
       </c>
       <c r="L83" t="n">
-        <v>15814.995</v>
+        <v>3356.36</v>
       </c>
     </row>
     <row r="84">
@@ -4120,31 +4120,31 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E84" t="n">
         <v>30</v>
       </c>
       <c r="F84" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="G84" t="n">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="H84" t="n">
-        <v>62.38</v>
+        <v>25.41239199326127</v>
       </c>
       <c r="I84" t="n">
-        <v>52.32</v>
+        <v>23.1067866318623</v>
       </c>
       <c r="J84" t="n">
-        <v>23.96</v>
+        <v>8.99</v>
       </c>
       <c r="K84" t="n">
-        <v>142.12</v>
+        <v>26.98</v>
       </c>
       <c r="L84" t="n">
-        <v>6040.1</v>
+        <v>1088.55</v>
       </c>
     </row>
     <row r="85">
@@ -4164,31 +4164,31 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E85" t="n">
+        <v>32</v>
+      </c>
+      <c r="F85" t="n">
         <v>30</v>
       </c>
-      <c r="F85" t="n">
-        <v>20</v>
-      </c>
       <c r="G85" t="n">
-        <v>148</v>
+        <v>62.5</v>
       </c>
       <c r="H85" t="n">
-        <v>148.225</v>
+        <v>61.17872833324817</v>
       </c>
       <c r="I85" t="n">
-        <v>135.485</v>
+        <v>58.68736795708592</v>
       </c>
       <c r="J85" t="n">
-        <v>57.32</v>
+        <v>20.275</v>
       </c>
       <c r="K85" t="n">
-        <v>114.26</v>
+        <v>27.25</v>
       </c>
       <c r="L85" t="n">
-        <v>13788.32</v>
+        <v>1860.655</v>
       </c>
     </row>
     <row r="86">
@@ -4208,31 +4208,31 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E86" t="n">
-        <v>30</v>
+        <v>30.66666666666667</v>
       </c>
       <c r="F86" t="n">
-        <v>20</v>
+        <v>28.66666666666667</v>
       </c>
       <c r="G86" t="n">
-        <v>119</v>
+        <v>48.33333333333334</v>
       </c>
       <c r="H86" t="n">
-        <v>119.5</v>
+        <v>46.77469844779006</v>
       </c>
       <c r="I86" t="n">
-        <v>112.12</v>
+        <v>46.60473207494096</v>
       </c>
       <c r="J86" t="n">
-        <v>45.95</v>
+        <v>15.53333333333333</v>
       </c>
       <c r="K86" t="n">
-        <v>120.9933333333333</v>
+        <v>28.49333333333333</v>
       </c>
       <c r="L86" t="n">
-        <v>11418.41</v>
+        <v>1637.813333333333</v>
       </c>
     </row>
     <row r="87">
@@ -4252,31 +4252,31 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E87" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F87" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G87" t="n">
-        <v>138.5</v>
+        <v>56</v>
       </c>
       <c r="H87" t="n">
-        <v>138.835</v>
+        <v>54.28897940344785</v>
       </c>
       <c r="I87" t="n">
-        <v>119.725</v>
+        <v>52.77358109171255</v>
       </c>
       <c r="J87" t="n">
-        <v>55.27</v>
+        <v>18.85</v>
       </c>
       <c r="K87" t="n">
-        <v>116.775</v>
+        <v>28.365</v>
       </c>
       <c r="L87" t="n">
-        <v>13358.89</v>
+        <v>2122.385</v>
       </c>
     </row>
     <row r="88">
@@ -4296,31 +4296,31 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E88" t="n">
+        <v>32</v>
+      </c>
+      <c r="F88" t="n">
         <v>30</v>
       </c>
-      <c r="F88" t="n">
-        <v>20</v>
-      </c>
       <c r="G88" t="n">
-        <v>95</v>
+        <v>39.5</v>
       </c>
       <c r="H88" t="n">
-        <v>95.06999999999999</v>
+        <v>38.32465011402937</v>
       </c>
       <c r="I88" t="n">
-        <v>85.845</v>
+        <v>36.86607010616989</v>
       </c>
       <c r="J88" t="n">
-        <v>35.47</v>
+        <v>12.785</v>
       </c>
       <c r="K88" t="n">
-        <v>121.675</v>
+        <v>24.905</v>
       </c>
       <c r="L88" t="n">
-        <v>8281.994999999999</v>
+        <v>1165.61</v>
       </c>
     </row>
     <row r="89">
@@ -4340,31 +4340,31 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E89" t="n">
         <v>30</v>
       </c>
       <c r="F89" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G89" t="n">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="H89" t="n">
-        <v>96.92</v>
+        <v>45.92877912207641</v>
       </c>
       <c r="I89" t="n">
-        <v>84.51000000000001</v>
+        <v>39.41673357903083</v>
       </c>
       <c r="J89" t="n">
-        <v>32.99</v>
+        <v>13.88</v>
       </c>
       <c r="K89" t="n">
-        <v>98.56999999999999</v>
+        <v>15.97</v>
       </c>
       <c r="L89" t="n">
-        <v>8301.34</v>
+        <v>1884.88</v>
       </c>
     </row>
     <row r="90">
@@ -4384,31 +4384,31 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E90" t="n">
         <v>24</v>
       </c>
       <c r="F90" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G90" t="n">
-        <v>59.5</v>
+        <v>28</v>
       </c>
       <c r="H90" t="n">
-        <v>59.355</v>
+        <v>27.14364632815601</v>
       </c>
       <c r="I90" t="n">
-        <v>53.31999999999999</v>
+        <v>25.20432971540769</v>
       </c>
       <c r="J90" t="n">
-        <v>21.765</v>
+        <v>9.015000000000001</v>
       </c>
       <c r="K90" t="n">
-        <v>116.425</v>
+        <v>38.725</v>
       </c>
       <c r="L90" t="n">
-        <v>5565.235</v>
+        <v>1192.36</v>
       </c>
     </row>
   </sheetData>

--- a/[3] Test Input/RESULTS_TT_MERGED_DATE.xlsx
+++ b/[3] Test Input/RESULTS_TT_MERGED_DATE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L90"/>
+  <dimension ref="A1:J90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,40 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>RMS</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>tau</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>AUC</t>
         </is>
@@ -512,30 +502,24 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="E2" t="n">
-        <v>24</v>
+        <v>39.5</v>
       </c>
       <c r="F2" t="n">
-        <v>22</v>
+        <v>38.15709191852535</v>
       </c>
       <c r="G2" t="n">
-        <v>39.5</v>
+        <v>37.901222596514</v>
       </c>
       <c r="H2" t="n">
-        <v>38.15709191852535</v>
+        <v>12.28</v>
       </c>
       <c r="I2" t="n">
-        <v>37.901222596514</v>
+        <v>26.68</v>
       </c>
       <c r="J2" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="K2" t="n">
-        <v>26.68</v>
-      </c>
-      <c r="L2" t="n">
         <v>1398.39</v>
       </c>
     </row>
@@ -556,30 +540,24 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="E3" t="n">
-        <v>26</v>
+        <v>40.66666666666666</v>
       </c>
       <c r="F3" t="n">
-        <v>24</v>
+        <v>39.88623919920547</v>
       </c>
       <c r="G3" t="n">
-        <v>40.66666666666666</v>
+        <v>38.34724931464705</v>
       </c>
       <c r="H3" t="n">
-        <v>39.88623919920547</v>
+        <v>14.15</v>
       </c>
       <c r="I3" t="n">
-        <v>38.34724931464705</v>
+        <v>34.52666666666666</v>
       </c>
       <c r="J3" t="n">
-        <v>14.15</v>
-      </c>
-      <c r="K3" t="n">
-        <v>34.52666666666666</v>
-      </c>
-      <c r="L3" t="n">
         <v>1790.253333333333</v>
       </c>
     </row>
@@ -600,30 +578,24 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E4" t="n">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F4" t="n">
-        <v>23</v>
+        <v>37.70465581166161</v>
       </c>
       <c r="G4" t="n">
-        <v>39</v>
+        <v>34.26570777602306</v>
       </c>
       <c r="H4" t="n">
-        <v>37.70465581166161</v>
+        <v>13.295</v>
       </c>
       <c r="I4" t="n">
-        <v>34.26570777602306</v>
+        <v>38.66500000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>13.295</v>
-      </c>
-      <c r="K4" t="n">
-        <v>38.66500000000001</v>
-      </c>
-      <c r="L4" t="n">
         <v>1705.13</v>
       </c>
     </row>
@@ -644,30 +616,24 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E5" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F5" t="n">
-        <v>28</v>
+        <v>39.38547301865003</v>
       </c>
       <c r="G5" t="n">
-        <v>39</v>
+        <v>39.38547301865003</v>
       </c>
       <c r="H5" t="n">
-        <v>39.38547301865003</v>
+        <v>12.47</v>
       </c>
       <c r="I5" t="n">
-        <v>39.38547301865003</v>
+        <v>27.19</v>
       </c>
       <c r="J5" t="n">
-        <v>12.47</v>
-      </c>
-      <c r="K5" t="n">
-        <v>27.19</v>
-      </c>
-      <c r="L5" t="n">
         <v>1398.13</v>
       </c>
     </row>
@@ -688,30 +654,24 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E6" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F6" t="n">
-        <v>16</v>
+        <v>24.66990551005223</v>
       </c>
       <c r="G6" t="n">
-        <v>25</v>
+        <v>23.91311652051354</v>
       </c>
       <c r="H6" t="n">
-        <v>24.66990551005223</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>23.91311652051354</v>
+        <v>48.67</v>
       </c>
       <c r="J6" t="n">
-        <v>8.390000000000001</v>
-      </c>
-      <c r="K6" t="n">
-        <v>48.67</v>
-      </c>
-      <c r="L6" t="n">
         <v>1527.07</v>
       </c>
     </row>
@@ -732,30 +692,24 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="E7" t="n">
-        <v>32</v>
+        <v>27.75</v>
       </c>
       <c r="F7" t="n">
-        <v>30</v>
+        <v>26.70708090036541</v>
       </c>
       <c r="G7" t="n">
-        <v>27.75</v>
+        <v>23.77814522029033</v>
       </c>
       <c r="H7" t="n">
-        <v>26.70708090036541</v>
+        <v>9.280000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>23.77814522029033</v>
+        <v>25.1075</v>
       </c>
       <c r="J7" t="n">
-        <v>9.280000000000001</v>
-      </c>
-      <c r="K7" t="n">
-        <v>25.1075</v>
-      </c>
-      <c r="L7" t="n">
         <v>995.8699999999999</v>
       </c>
     </row>
@@ -776,30 +730,24 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="E8" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="F8" t="n">
-        <v>26</v>
+        <v>13.29432725486207</v>
       </c>
       <c r="G8" t="n">
-        <v>14</v>
+        <v>13.15708531561203</v>
       </c>
       <c r="H8" t="n">
-        <v>13.29432725486207</v>
+        <v>3.74</v>
       </c>
       <c r="I8" t="n">
-        <v>13.15708531561203</v>
+        <v>6.65</v>
       </c>
       <c r="J8" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="K8" t="n">
-        <v>6.65</v>
-      </c>
-      <c r="L8" t="n">
         <v>814.05</v>
       </c>
     </row>
@@ -820,30 +768,24 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="E9" t="n">
-        <v>26</v>
+        <v>36.5</v>
       </c>
       <c r="F9" t="n">
-        <v>24</v>
+        <v>35.61002094677631</v>
       </c>
       <c r="G9" t="n">
-        <v>36.5</v>
+        <v>33.81904901861144</v>
       </c>
       <c r="H9" t="n">
-        <v>35.61002094677631</v>
+        <v>11.41</v>
       </c>
       <c r="I9" t="n">
-        <v>33.81904901861144</v>
+        <v>28.575</v>
       </c>
       <c r="J9" t="n">
-        <v>11.41</v>
-      </c>
-      <c r="K9" t="n">
-        <v>28.575</v>
-      </c>
-      <c r="L9" t="n">
         <v>1489.095</v>
       </c>
     </row>
@@ -864,30 +806,24 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="E10" t="n">
-        <v>33</v>
+        <v>39.5</v>
       </c>
       <c r="F10" t="n">
-        <v>31</v>
+        <v>37.48118625374406</v>
       </c>
       <c r="G10" t="n">
-        <v>39.5</v>
+        <v>32.31613656729445</v>
       </c>
       <c r="H10" t="n">
-        <v>37.48118625374406</v>
+        <v>12.67</v>
       </c>
       <c r="I10" t="n">
-        <v>32.31613656729445</v>
+        <v>23.195</v>
       </c>
       <c r="J10" t="n">
-        <v>12.67</v>
-      </c>
-      <c r="K10" t="n">
-        <v>23.195</v>
-      </c>
-      <c r="L10" t="n">
         <v>1337.01</v>
       </c>
     </row>
@@ -908,30 +844,24 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="E11" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F11" t="n">
-        <v>30</v>
+        <v>36.79391028851607</v>
       </c>
       <c r="G11" t="n">
-        <v>40</v>
+        <v>34.1949615403443</v>
       </c>
       <c r="H11" t="n">
-        <v>36.79391028851607</v>
+        <v>12.83</v>
       </c>
       <c r="I11" t="n">
-        <v>34.1949615403443</v>
+        <v>25.02</v>
       </c>
       <c r="J11" t="n">
-        <v>12.83</v>
-      </c>
-      <c r="K11" t="n">
-        <v>25.02</v>
-      </c>
-      <c r="L11" t="n">
         <v>1276.1</v>
       </c>
     </row>
@@ -952,30 +882,24 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>28.5</v>
       </c>
       <c r="E12" t="n">
-        <v>28.5</v>
+        <v>36.75</v>
       </c>
       <c r="F12" t="n">
-        <v>26.5</v>
+        <v>36.03951805545365</v>
       </c>
       <c r="G12" t="n">
-        <v>36.75</v>
+        <v>33.72651754833618</v>
       </c>
       <c r="H12" t="n">
-        <v>36.03951805545365</v>
+        <v>11.595</v>
       </c>
       <c r="I12" t="n">
-        <v>33.72651754833618</v>
+        <v>29.5125</v>
       </c>
       <c r="J12" t="n">
-        <v>11.595</v>
-      </c>
-      <c r="K12" t="n">
-        <v>29.5125</v>
-      </c>
-      <c r="L12" t="n">
         <v>1320.66</v>
       </c>
     </row>
@@ -996,30 +920,24 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="E13" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F13" t="n">
-        <v>30</v>
+        <v>27.07958939152019</v>
       </c>
       <c r="G13" t="n">
-        <v>27</v>
+        <v>26.31266961338196</v>
       </c>
       <c r="H13" t="n">
-        <v>27.07958939152019</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="I13" t="n">
-        <v>26.31266961338196</v>
+        <v>28.9</v>
       </c>
       <c r="J13" t="n">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="K13" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="L13" t="n">
         <v>900.88</v>
       </c>
     </row>
@@ -1040,30 +958,24 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="E14" t="n">
-        <v>32</v>
+        <v>29.5</v>
       </c>
       <c r="F14" t="n">
-        <v>30</v>
+        <v>29.85957669846027</v>
       </c>
       <c r="G14" t="n">
-        <v>29.5</v>
+        <v>27.16789191208524</v>
       </c>
       <c r="H14" t="n">
-        <v>29.85957669846027</v>
+        <v>8.688333333333334</v>
       </c>
       <c r="I14" t="n">
-        <v>27.16789191208524</v>
+        <v>15.42833333333333</v>
       </c>
       <c r="J14" t="n">
-        <v>8.688333333333334</v>
-      </c>
-      <c r="K14" t="n">
-        <v>15.42833333333333</v>
-      </c>
-      <c r="L14" t="n">
         <v>774.3900000000001</v>
       </c>
     </row>
@@ -1084,30 +996,24 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E15" t="n">
-        <v>25</v>
+        <v>35.75</v>
       </c>
       <c r="F15" t="n">
-        <v>23</v>
+        <v>35.35811780491869</v>
       </c>
       <c r="G15" t="n">
-        <v>35.75</v>
+        <v>34.92637751942088</v>
       </c>
       <c r="H15" t="n">
-        <v>35.35811780491869</v>
+        <v>11.4025</v>
       </c>
       <c r="I15" t="n">
-        <v>34.92637751942088</v>
+        <v>29.14</v>
       </c>
       <c r="J15" t="n">
-        <v>11.4025</v>
-      </c>
-      <c r="K15" t="n">
-        <v>29.14</v>
-      </c>
-      <c r="L15" t="n">
         <v>1313.3625</v>
       </c>
     </row>
@@ -1128,30 +1034,24 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E16" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="F16" t="n">
-        <v>23</v>
+        <v>41.55368849538977</v>
       </c>
       <c r="G16" t="n">
-        <v>43</v>
+        <v>39.99520014286202</v>
       </c>
       <c r="H16" t="n">
-        <v>41.55368849538977</v>
+        <v>14.34</v>
       </c>
       <c r="I16" t="n">
-        <v>39.99520014286202</v>
+        <v>43.81</v>
       </c>
       <c r="J16" t="n">
-        <v>14.34</v>
-      </c>
-      <c r="K16" t="n">
-        <v>43.81</v>
-      </c>
-      <c r="L16" t="n">
         <v>1790.095</v>
       </c>
     </row>
@@ -1172,30 +1072,24 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E17" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F17" t="n">
-        <v>28</v>
+        <v>36.87715457384766</v>
       </c>
       <c r="G17" t="n">
-        <v>37</v>
+        <v>32.47671713724356</v>
       </c>
       <c r="H17" t="n">
-        <v>36.87715457384766</v>
+        <v>11.18</v>
       </c>
       <c r="I17" t="n">
-        <v>32.47671713724356</v>
+        <v>13.63</v>
       </c>
       <c r="J17" t="n">
-        <v>11.18</v>
-      </c>
-      <c r="K17" t="n">
-        <v>13.63</v>
-      </c>
-      <c r="L17" t="n">
         <v>955.5</v>
       </c>
     </row>
@@ -1216,30 +1110,24 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E18" t="n">
-        <v>25</v>
+        <v>45.5</v>
       </c>
       <c r="F18" t="n">
-        <v>23</v>
+        <v>44.5148842044506</v>
       </c>
       <c r="G18" t="n">
-        <v>45.5</v>
+        <v>42.39372945700954</v>
       </c>
       <c r="H18" t="n">
-        <v>44.5148842044506</v>
+        <v>16.16</v>
       </c>
       <c r="I18" t="n">
-        <v>42.39372945700954</v>
+        <v>41.685</v>
       </c>
       <c r="J18" t="n">
-        <v>16.16</v>
-      </c>
-      <c r="K18" t="n">
-        <v>41.685</v>
-      </c>
-      <c r="L18" t="n">
         <v>2223.38</v>
       </c>
     </row>
@@ -1260,30 +1148,24 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="E19" t="n">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="F19" t="n">
-        <v>30</v>
+        <v>51.85345214260659</v>
       </c>
       <c r="G19" t="n">
-        <v>52</v>
+        <v>51.85345214260659</v>
       </c>
       <c r="H19" t="n">
-        <v>51.85345214260659</v>
+        <v>17.89</v>
       </c>
       <c r="I19" t="n">
-        <v>51.85345214260659</v>
+        <v>33.3</v>
       </c>
       <c r="J19" t="n">
-        <v>17.89</v>
-      </c>
-      <c r="K19" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L19" t="n">
         <v>1751.87</v>
       </c>
     </row>
@@ -1304,30 +1186,24 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E20" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F20" t="n">
-        <v>28</v>
+        <v>33.88609227146581</v>
       </c>
       <c r="G20" t="n">
-        <v>34</v>
+        <v>33.88609227146581</v>
       </c>
       <c r="H20" t="n">
-        <v>33.88609227146581</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="I20" t="n">
-        <v>33.88609227146581</v>
+        <v>15.78</v>
       </c>
       <c r="J20" t="n">
-        <v>9.779999999999999</v>
-      </c>
-      <c r="K20" t="n">
-        <v>15.78</v>
-      </c>
-      <c r="L20" t="n">
         <v>937.85</v>
       </c>
     </row>
@@ -1348,30 +1224,24 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="E21" t="n">
-        <v>24</v>
+        <v>65.5</v>
       </c>
       <c r="F21" t="n">
-        <v>22</v>
+        <v>64.10655120101137</v>
       </c>
       <c r="G21" t="n">
-        <v>65.5</v>
+        <v>52.03237321817214</v>
       </c>
       <c r="H21" t="n">
-        <v>64.10655120101137</v>
+        <v>19.24</v>
       </c>
       <c r="I21" t="n">
-        <v>52.03237321817214</v>
+        <v>31.635</v>
       </c>
       <c r="J21" t="n">
-        <v>19.24</v>
-      </c>
-      <c r="K21" t="n">
-        <v>31.635</v>
-      </c>
-      <c r="L21" t="n">
         <v>2055.65</v>
       </c>
     </row>
@@ -1392,30 +1262,24 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E22" t="n">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="F22" t="n">
-        <v>23</v>
+        <v>46.5603841431676</v>
       </c>
       <c r="G22" t="n">
-        <v>47</v>
+        <v>45.10835993506403</v>
       </c>
       <c r="H22" t="n">
-        <v>46.5603841431676</v>
+        <v>14.98</v>
       </c>
       <c r="I22" t="n">
-        <v>45.10835993506403</v>
+        <v>34.025</v>
       </c>
       <c r="J22" t="n">
-        <v>14.98</v>
-      </c>
-      <c r="K22" t="n">
-        <v>34.025</v>
-      </c>
-      <c r="L22" t="n">
         <v>1829.245</v>
       </c>
     </row>
@@ -1436,30 +1300,24 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E23" t="n">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="F23" t="n">
-        <v>28</v>
+        <v>61.58991270946142</v>
       </c>
       <c r="G23" t="n">
-        <v>62</v>
+        <v>61.58991270946142</v>
       </c>
       <c r="H23" t="n">
-        <v>61.58991270946142</v>
+        <v>18.71</v>
       </c>
       <c r="I23" t="n">
-        <v>61.58991270946142</v>
+        <v>31.05</v>
       </c>
       <c r="J23" t="n">
-        <v>18.71</v>
-      </c>
-      <c r="K23" t="n">
-        <v>31.05</v>
-      </c>
-      <c r="L23" t="n">
         <v>2480.36</v>
       </c>
     </row>
@@ -1480,30 +1338,24 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="E24" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F24" t="n">
-        <v>30</v>
+        <v>30.2652756327663</v>
       </c>
       <c r="G24" t="n">
-        <v>31</v>
+        <v>26.69714947367789</v>
       </c>
       <c r="H24" t="n">
-        <v>30.2652756327663</v>
+        <v>11.32</v>
       </c>
       <c r="I24" t="n">
-        <v>26.69714947367789</v>
+        <v>32.63</v>
       </c>
       <c r="J24" t="n">
-        <v>11.32</v>
-      </c>
-      <c r="K24" t="n">
-        <v>32.63</v>
-      </c>
-      <c r="L24" t="n">
         <v>1106.22</v>
       </c>
     </row>
@@ -1524,30 +1376,24 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>2</v>
+        <v>31.33333333333333</v>
       </c>
       <c r="E25" t="n">
-        <v>31.33333333333333</v>
+        <v>43</v>
       </c>
       <c r="F25" t="n">
-        <v>29.33333333333333</v>
+        <v>41.37278946377435</v>
       </c>
       <c r="G25" t="n">
-        <v>43</v>
+        <v>40.53719853924488</v>
       </c>
       <c r="H25" t="n">
-        <v>41.37278946377435</v>
+        <v>14.12</v>
       </c>
       <c r="I25" t="n">
-        <v>40.53719853924488</v>
+        <v>23.545</v>
       </c>
       <c r="J25" t="n">
-        <v>14.12</v>
-      </c>
-      <c r="K25" t="n">
-        <v>23.545</v>
-      </c>
-      <c r="L25" t="n">
         <v>1548.331666666667</v>
       </c>
     </row>
@@ -1568,30 +1414,24 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E26" t="n">
-        <v>25</v>
+        <v>46.5</v>
       </c>
       <c r="F26" t="n">
-        <v>23</v>
+        <v>45.74078271266448</v>
       </c>
       <c r="G26" t="n">
-        <v>46.5</v>
+        <v>43.79088025050888</v>
       </c>
       <c r="H26" t="n">
-        <v>45.74078271266448</v>
+        <v>15.915</v>
       </c>
       <c r="I26" t="n">
-        <v>43.79088025050888</v>
+        <v>40.72499999999999</v>
       </c>
       <c r="J26" t="n">
-        <v>15.915</v>
-      </c>
-      <c r="K26" t="n">
-        <v>40.72499999999999</v>
-      </c>
-      <c r="L26" t="n">
         <v>2212.58</v>
       </c>
     </row>
@@ -1612,30 +1452,24 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="E27" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="F27" t="n">
-        <v>22</v>
+        <v>39.9910948823381</v>
       </c>
       <c r="G27" t="n">
-        <v>40</v>
+        <v>37.79222980740123</v>
       </c>
       <c r="H27" t="n">
-        <v>39.9910948823381</v>
+        <v>13.45</v>
       </c>
       <c r="I27" t="n">
-        <v>37.79222980740123</v>
+        <v>35.435</v>
       </c>
       <c r="J27" t="n">
-        <v>13.45</v>
-      </c>
-      <c r="K27" t="n">
-        <v>35.435</v>
-      </c>
-      <c r="L27" t="n">
         <v>1558.955</v>
       </c>
     </row>
@@ -1656,30 +1490,24 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="E28" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F28" t="n">
-        <v>30</v>
+        <v>36.65535835810059</v>
       </c>
       <c r="G28" t="n">
-        <v>36</v>
+        <v>36.03116282464502</v>
       </c>
       <c r="H28" t="n">
-        <v>36.65535835810059</v>
+        <v>12.22</v>
       </c>
       <c r="I28" t="n">
-        <v>36.03116282464502</v>
+        <v>37.99</v>
       </c>
       <c r="J28" t="n">
-        <v>12.22</v>
-      </c>
-      <c r="K28" t="n">
-        <v>37.99</v>
-      </c>
-      <c r="L28" t="n">
         <v>1396.3</v>
       </c>
     </row>
@@ -1700,30 +1528,24 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E29" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F29" t="n">
-        <v>28</v>
+        <v>37.1139849496659</v>
       </c>
       <c r="G29" t="n">
-        <v>37</v>
+        <v>33.43828079471414</v>
       </c>
       <c r="H29" t="n">
-        <v>37.1139849496659</v>
+        <v>10.41</v>
       </c>
       <c r="I29" t="n">
-        <v>33.43828079471414</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="J29" t="n">
-        <v>10.41</v>
-      </c>
-      <c r="K29" t="n">
-        <v>9.869999999999999</v>
-      </c>
-      <c r="L29" t="n">
         <v>1100.22</v>
       </c>
     </row>
@@ -1744,30 +1566,24 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E30" t="n">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="F30" t="n">
-        <v>16</v>
+        <v>83.67018536594581</v>
       </c>
       <c r="G30" t="n">
-        <v>86</v>
+        <v>72.80849127215086</v>
       </c>
       <c r="H30" t="n">
-        <v>83.67018536594581</v>
+        <v>28.755</v>
       </c>
       <c r="I30" t="n">
-        <v>72.80849127215086</v>
+        <v>45.785</v>
       </c>
       <c r="J30" t="n">
-        <v>28.755</v>
-      </c>
-      <c r="K30" t="n">
-        <v>45.785</v>
-      </c>
-      <c r="L30" t="n">
         <v>4421.905000000001</v>
       </c>
     </row>
@@ -1788,30 +1604,24 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E31" t="n">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="F31" t="n">
-        <v>14</v>
+        <v>64.95735375722688</v>
       </c>
       <c r="G31" t="n">
-        <v>71</v>
+        <v>58.47035590841362</v>
       </c>
       <c r="H31" t="n">
-        <v>64.95735375722688</v>
+        <v>25.72</v>
       </c>
       <c r="I31" t="n">
-        <v>58.47035590841362</v>
+        <v>64.94</v>
       </c>
       <c r="J31" t="n">
-        <v>25.72</v>
-      </c>
-      <c r="K31" t="n">
-        <v>64.94</v>
-      </c>
-      <c r="L31" t="n">
         <v>4534.51</v>
       </c>
     </row>
@@ -1832,30 +1642,24 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E32" t="n">
-        <v>18</v>
+        <v>119.25</v>
       </c>
       <c r="F32" t="n">
-        <v>16</v>
+        <v>113.5355978647551</v>
       </c>
       <c r="G32" t="n">
-        <v>119.25</v>
+        <v>102.6187257347885</v>
       </c>
       <c r="H32" t="n">
-        <v>113.5355978647551</v>
+        <v>39.5275</v>
       </c>
       <c r="I32" t="n">
-        <v>102.6187257347885</v>
+        <v>42.8075</v>
       </c>
       <c r="J32" t="n">
-        <v>39.5275</v>
-      </c>
-      <c r="K32" t="n">
-        <v>42.8075</v>
-      </c>
-      <c r="L32" t="n">
         <v>5969.127500000001</v>
       </c>
     </row>
@@ -1876,30 +1680,24 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="E33" t="n">
-        <v>32</v>
+        <v>143</v>
       </c>
       <c r="F33" t="n">
-        <v>30</v>
+        <v>130.7115225493653</v>
       </c>
       <c r="G33" t="n">
-        <v>143</v>
+        <v>120.4072559039201</v>
       </c>
       <c r="H33" t="n">
-        <v>130.7115225493653</v>
+        <v>46.91</v>
       </c>
       <c r="I33" t="n">
-        <v>120.4072559039201</v>
+        <v>26.99</v>
       </c>
       <c r="J33" t="n">
-        <v>46.91</v>
-      </c>
-      <c r="K33" t="n">
-        <v>26.99</v>
-      </c>
-      <c r="L33" t="n">
         <v>4245.61</v>
       </c>
     </row>
@@ -1920,30 +1718,24 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E34" t="n">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="F34" t="n">
-        <v>16</v>
+        <v>109.9967076976229</v>
       </c>
       <c r="G34" t="n">
-        <v>111</v>
+        <v>109.9967076976229</v>
       </c>
       <c r="H34" t="n">
-        <v>109.9967076976229</v>
+        <v>42.08</v>
       </c>
       <c r="I34" t="n">
-        <v>109.9967076976229</v>
+        <v>47.33</v>
       </c>
       <c r="J34" t="n">
-        <v>42.08</v>
-      </c>
-      <c r="K34" t="n">
-        <v>47.33</v>
-      </c>
-      <c r="L34" t="n">
         <v>6373.27</v>
       </c>
     </row>
@@ -1964,30 +1756,24 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E35" t="n">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="F35" t="n">
-        <v>14</v>
+        <v>106.5355754655067</v>
       </c>
       <c r="G35" t="n">
-        <v>108</v>
+        <v>97.0874448510065</v>
       </c>
       <c r="H35" t="n">
-        <v>106.5355754655067</v>
+        <v>35.72</v>
       </c>
       <c r="I35" t="n">
-        <v>97.0874448510065</v>
+        <v>52.52</v>
       </c>
       <c r="J35" t="n">
-        <v>35.72</v>
-      </c>
-      <c r="K35" t="n">
-        <v>52.52</v>
-      </c>
-      <c r="L35" t="n">
         <v>5476.32</v>
       </c>
     </row>
@@ -2008,30 +1794,24 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="E36" t="n">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="F36" t="n">
-        <v>42</v>
+        <v>99.95367834267238</v>
       </c>
       <c r="G36" t="n">
-        <v>101</v>
+        <v>94.60637714139042</v>
       </c>
       <c r="H36" t="n">
-        <v>99.95367834267238</v>
+        <v>33.185</v>
       </c>
       <c r="I36" t="n">
-        <v>94.60637714139042</v>
+        <v>55.44</v>
       </c>
       <c r="J36" t="n">
-        <v>33.185</v>
-      </c>
-      <c r="K36" t="n">
-        <v>55.44</v>
-      </c>
-      <c r="L36" t="n">
         <v>3086.445</v>
       </c>
     </row>
@@ -2052,30 +1832,24 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="E37" t="n">
-        <v>28</v>
+        <v>78.33333333333333</v>
       </c>
       <c r="F37" t="n">
-        <v>26</v>
+        <v>74.57517676700242</v>
       </c>
       <c r="G37" t="n">
-        <v>78.33333333333333</v>
+        <v>70.66362698429181</v>
       </c>
       <c r="H37" t="n">
-        <v>74.57517676700242</v>
+        <v>27.99</v>
       </c>
       <c r="I37" t="n">
-        <v>70.66362698429181</v>
+        <v>39.51333333333333</v>
       </c>
       <c r="J37" t="n">
-        <v>27.99</v>
-      </c>
-      <c r="K37" t="n">
-        <v>39.51333333333333</v>
-      </c>
-      <c r="L37" t="n">
         <v>3732.513333333334</v>
       </c>
     </row>
@@ -2096,30 +1870,24 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="E38" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F38" t="n">
-        <v>26</v>
+        <v>34.692940575509</v>
       </c>
       <c r="G38" t="n">
-        <v>37</v>
+        <v>29.04371331668617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.692940575509</v>
+        <v>14.05</v>
       </c>
       <c r="I38" t="n">
-        <v>29.04371331668617</v>
+        <v>43.38</v>
       </c>
       <c r="J38" t="n">
-        <v>14.05</v>
-      </c>
-      <c r="K38" t="n">
-        <v>43.38</v>
-      </c>
-      <c r="L38" t="n">
         <v>1834.96</v>
       </c>
     </row>
@@ -2140,30 +1908,24 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>2</v>
+        <v>30.5</v>
       </c>
       <c r="E39" t="n">
-        <v>30.5</v>
+        <v>79.5</v>
       </c>
       <c r="F39" t="n">
-        <v>28.5</v>
+        <v>75.81757455991648</v>
       </c>
       <c r="G39" t="n">
-        <v>79.5</v>
+        <v>62.59841066165627</v>
       </c>
       <c r="H39" t="n">
-        <v>75.81757455991648</v>
+        <v>25.1425</v>
       </c>
       <c r="I39" t="n">
-        <v>62.59841066165627</v>
+        <v>34.67</v>
       </c>
       <c r="J39" t="n">
-        <v>25.1425</v>
-      </c>
-      <c r="K39" t="n">
-        <v>34.67</v>
-      </c>
-      <c r="L39" t="n">
         <v>3220.3375</v>
       </c>
     </row>
@@ -2184,30 +1946,24 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E40" t="n">
-        <v>20</v>
+        <v>183</v>
       </c>
       <c r="F40" t="n">
-        <v>18</v>
+        <v>179.6598565617463</v>
       </c>
       <c r="G40" t="n">
-        <v>183</v>
+        <v>169.8854835883062</v>
       </c>
       <c r="H40" t="n">
-        <v>179.6598565617463</v>
+        <v>58.81</v>
       </c>
       <c r="I40" t="n">
-        <v>169.8854835883062</v>
+        <v>36.36</v>
       </c>
       <c r="J40" t="n">
-        <v>58.81</v>
-      </c>
-      <c r="K40" t="n">
-        <v>36.36</v>
-      </c>
-      <c r="L40" t="n">
         <v>7754.48</v>
       </c>
     </row>
@@ -2228,30 +1984,24 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E41" t="n">
-        <v>18</v>
+        <v>111.5</v>
       </c>
       <c r="F41" t="n">
-        <v>16</v>
+        <v>108.5863293499438</v>
       </c>
       <c r="G41" t="n">
-        <v>111.5</v>
+        <v>96.65267802652679</v>
       </c>
       <c r="H41" t="n">
-        <v>108.5863293499438</v>
+        <v>37.3725</v>
       </c>
       <c r="I41" t="n">
-        <v>96.65267802652679</v>
+        <v>43.3425</v>
       </c>
       <c r="J41" t="n">
-        <v>37.3725</v>
-      </c>
-      <c r="K41" t="n">
-        <v>43.3425</v>
-      </c>
-      <c r="L41" t="n">
         <v>5305.1675</v>
       </c>
     </row>
@@ -2272,30 +2022,24 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E42" t="n">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="F42" t="n">
-        <v>16</v>
+        <v>87.46482733403951</v>
       </c>
       <c r="G42" t="n">
-        <v>89</v>
+        <v>72.92630677718111</v>
       </c>
       <c r="H42" t="n">
-        <v>87.46482733403951</v>
+        <v>30</v>
       </c>
       <c r="I42" t="n">
-        <v>72.92630677718111</v>
+        <v>41.43</v>
       </c>
       <c r="J42" t="n">
-        <v>30</v>
-      </c>
-      <c r="K42" t="n">
-        <v>41.43</v>
-      </c>
-      <c r="L42" t="n">
         <v>4296.01</v>
       </c>
     </row>
@@ -2316,30 +2060,24 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E43" t="n">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="F43" t="n">
-        <v>23</v>
+        <v>79.37157771320014</v>
       </c>
       <c r="G43" t="n">
-        <v>82</v>
+        <v>67.33695936736309</v>
       </c>
       <c r="H43" t="n">
-        <v>79.37157771320014</v>
+        <v>27.405</v>
       </c>
       <c r="I43" t="n">
-        <v>67.33695936736309</v>
+        <v>35.86499999999999</v>
       </c>
       <c r="J43" t="n">
-        <v>27.405</v>
-      </c>
-      <c r="K43" t="n">
-        <v>35.86499999999999</v>
-      </c>
-      <c r="L43" t="n">
         <v>3345.415</v>
       </c>
     </row>
@@ -2360,30 +2098,24 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2</v>
+        <v>22.33333333333333</v>
       </c>
       <c r="E44" t="n">
-        <v>22.33333333333333</v>
+        <v>96.16666666666667</v>
       </c>
       <c r="F44" t="n">
-        <v>20.33333333333333</v>
+        <v>91.31900445526388</v>
       </c>
       <c r="G44" t="n">
-        <v>96.16666666666667</v>
+        <v>74.94708301810603</v>
       </c>
       <c r="H44" t="n">
-        <v>91.31900445526388</v>
+        <v>32.735</v>
       </c>
       <c r="I44" t="n">
-        <v>74.94708301810603</v>
+        <v>55.89833333333333</v>
       </c>
       <c r="J44" t="n">
-        <v>32.735</v>
-      </c>
-      <c r="K44" t="n">
-        <v>55.89833333333333</v>
-      </c>
-      <c r="L44" t="n">
         <v>4523.25</v>
       </c>
     </row>
@@ -2404,30 +2136,24 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E45" t="n">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="F45" t="n">
-        <v>16</v>
+        <v>93.854724498978</v>
       </c>
       <c r="G45" t="n">
-        <v>96</v>
+        <v>90.53158744283327</v>
       </c>
       <c r="H45" t="n">
-        <v>93.854724498978</v>
+        <v>33.09</v>
       </c>
       <c r="I45" t="n">
-        <v>90.53158744283327</v>
+        <v>55.44</v>
       </c>
       <c r="J45" t="n">
-        <v>33.09</v>
-      </c>
-      <c r="K45" t="n">
-        <v>55.44</v>
-      </c>
-      <c r="L45" t="n">
         <v>5152.42</v>
       </c>
     </row>
@@ -2448,30 +2174,24 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E46" t="n">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="F46" t="n">
-        <v>14</v>
+        <v>106.2515261101972</v>
       </c>
       <c r="G46" t="n">
-        <v>110</v>
+        <v>99.44980825950968</v>
       </c>
       <c r="H46" t="n">
-        <v>106.2515261101972</v>
+        <v>41.26</v>
       </c>
       <c r="I46" t="n">
-        <v>99.44980825950968</v>
+        <v>55.04</v>
       </c>
       <c r="J46" t="n">
-        <v>41.26</v>
-      </c>
-      <c r="K46" t="n">
-        <v>55.04</v>
-      </c>
-      <c r="L46" t="n">
         <v>6939.63</v>
       </c>
     </row>
@@ -2492,30 +2212,24 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="E47" t="n">
-        <v>26</v>
+        <v>102.5</v>
       </c>
       <c r="F47" t="n">
-        <v>24</v>
+        <v>99.72173769434531</v>
       </c>
       <c r="G47" t="n">
-        <v>102.5</v>
+        <v>92.52676305190607</v>
       </c>
       <c r="H47" t="n">
-        <v>99.72173769434531</v>
+        <v>35.72</v>
       </c>
       <c r="I47" t="n">
-        <v>92.52676305190607</v>
+        <v>36.615</v>
       </c>
       <c r="J47" t="n">
-        <v>35.72</v>
-      </c>
-      <c r="K47" t="n">
-        <v>36.615</v>
-      </c>
-      <c r="L47" t="n">
         <v>4269.9</v>
       </c>
     </row>
@@ -2536,30 +2250,24 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="E48" t="n">
-        <v>24</v>
+        <v>137</v>
       </c>
       <c r="F48" t="n">
-        <v>22</v>
+        <v>131.2630190390913</v>
       </c>
       <c r="G48" t="n">
-        <v>137</v>
+        <v>134.0697263200833</v>
       </c>
       <c r="H48" t="n">
-        <v>131.2630190390913</v>
+        <v>44.40000000000001</v>
       </c>
       <c r="I48" t="n">
-        <v>134.0697263200833</v>
+        <v>33.305</v>
       </c>
       <c r="J48" t="n">
-        <v>44.40000000000001</v>
-      </c>
-      <c r="K48" t="n">
-        <v>33.305</v>
-      </c>
-      <c r="L48" t="n">
         <v>4854.77</v>
       </c>
     </row>
@@ -2580,30 +2288,24 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E49" t="n">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="F49" t="n">
-        <v>16</v>
+        <v>79.73374110489735</v>
       </c>
       <c r="G49" t="n">
-        <v>83</v>
+        <v>65.47929746528359</v>
       </c>
       <c r="H49" t="n">
-        <v>79.73374110489735</v>
+        <v>27.95</v>
       </c>
       <c r="I49" t="n">
-        <v>65.47929746528359</v>
+        <v>63.85</v>
       </c>
       <c r="J49" t="n">
-        <v>27.95</v>
-      </c>
-      <c r="K49" t="n">
-        <v>63.85</v>
-      </c>
-      <c r="L49" t="n">
         <v>4441.71</v>
       </c>
     </row>
@@ -2624,30 +2326,24 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E50" t="n">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F50" t="n">
-        <v>16</v>
+        <v>55.89726241208218</v>
       </c>
       <c r="G50" t="n">
-        <v>58</v>
+        <v>54.82421742710823</v>
       </c>
       <c r="H50" t="n">
-        <v>55.89726241208218</v>
+        <v>20.2</v>
       </c>
       <c r="I50" t="n">
-        <v>54.82421742710823</v>
+        <v>43.22</v>
       </c>
       <c r="J50" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="K50" t="n">
-        <v>43.22</v>
-      </c>
-      <c r="L50" t="n">
         <v>2962.44</v>
       </c>
     </row>
@@ -2668,30 +2364,24 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E51" t="n">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="F51" t="n">
-        <v>15</v>
+        <v>94.06524484290816</v>
       </c>
       <c r="G51" t="n">
-        <v>99</v>
+        <v>83.97255651378427</v>
       </c>
       <c r="H51" t="n">
-        <v>94.06524484290816</v>
+        <v>33.675</v>
       </c>
       <c r="I51" t="n">
-        <v>83.97255651378427</v>
+        <v>54.235</v>
       </c>
       <c r="J51" t="n">
-        <v>33.675</v>
-      </c>
-      <c r="K51" t="n">
-        <v>54.235</v>
-      </c>
-      <c r="L51" t="n">
         <v>5280.835</v>
       </c>
     </row>
@@ -2712,30 +2402,24 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>2</v>
+        <v>25.33333333333333</v>
       </c>
       <c r="E52" t="n">
-        <v>25.33333333333333</v>
+        <v>91.83333333333333</v>
       </c>
       <c r="F52" t="n">
-        <v>23.33333333333333</v>
+        <v>90.30098681760269</v>
       </c>
       <c r="G52" t="n">
-        <v>91.83333333333333</v>
+        <v>79.6137224604699</v>
       </c>
       <c r="H52" t="n">
-        <v>90.30098681760269</v>
+        <v>30.76</v>
       </c>
       <c r="I52" t="n">
-        <v>79.6137224604699</v>
+        <v>37.99166666666667</v>
       </c>
       <c r="J52" t="n">
-        <v>30.76</v>
-      </c>
-      <c r="K52" t="n">
-        <v>37.99166666666667</v>
-      </c>
-      <c r="L52" t="n">
         <v>3790.938333333334</v>
       </c>
     </row>
@@ -2756,30 +2440,24 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E53" t="n">
-        <v>18</v>
+        <v>88.75</v>
       </c>
       <c r="F53" t="n">
-        <v>16</v>
+        <v>83.90813372170328</v>
       </c>
       <c r="G53" t="n">
-        <v>88.75</v>
+        <v>73.23064562607388</v>
       </c>
       <c r="H53" t="n">
-        <v>83.90813372170328</v>
+        <v>30.2675</v>
       </c>
       <c r="I53" t="n">
-        <v>73.23064562607388</v>
+        <v>49.36499999999999</v>
       </c>
       <c r="J53" t="n">
-        <v>30.2675</v>
-      </c>
-      <c r="K53" t="n">
-        <v>49.36499999999999</v>
-      </c>
-      <c r="L53" t="n">
         <v>4791.922500000001</v>
       </c>
     </row>
@@ -2800,30 +2478,24 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="E54" t="n">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="F54" t="n">
-        <v>26</v>
+        <v>74.49122293726249</v>
       </c>
       <c r="G54" t="n">
-        <v>76</v>
+        <v>74.49122293726249</v>
       </c>
       <c r="H54" t="n">
-        <v>74.49122293726249</v>
+        <v>23.41</v>
       </c>
       <c r="I54" t="n">
-        <v>74.49122293726249</v>
+        <v>20.02</v>
       </c>
       <c r="J54" t="n">
-        <v>23.41</v>
-      </c>
-      <c r="K54" t="n">
-        <v>20.02</v>
-      </c>
-      <c r="L54" t="n">
         <v>2279.12</v>
       </c>
     </row>
@@ -2844,30 +2516,24 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E55" t="n">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="F55" t="n">
-        <v>16</v>
+        <v>81.12670331244388</v>
       </c>
       <c r="G55" t="n">
-        <v>87</v>
+        <v>68.19635100725603</v>
       </c>
       <c r="H55" t="n">
-        <v>81.12670331244388</v>
+        <v>29.4</v>
       </c>
       <c r="I55" t="n">
-        <v>68.19635100725603</v>
+        <v>44.08</v>
       </c>
       <c r="J55" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="K55" t="n">
-        <v>44.08</v>
-      </c>
-      <c r="L55" t="n">
         <v>4181.98</v>
       </c>
     </row>
@@ -2888,30 +2554,24 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E56" t="n">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="F56" t="n">
-        <v>16</v>
+        <v>92.71265036536886</v>
       </c>
       <c r="G56" t="n">
-        <v>96</v>
+        <v>77.32101493747103</v>
       </c>
       <c r="H56" t="n">
-        <v>92.71265036536886</v>
+        <v>31.72</v>
       </c>
       <c r="I56" t="n">
-        <v>77.32101493747103</v>
+        <v>45.28</v>
       </c>
       <c r="J56" t="n">
-        <v>31.72</v>
-      </c>
-      <c r="K56" t="n">
-        <v>45.28</v>
-      </c>
-      <c r="L56" t="n">
         <v>4157.56</v>
       </c>
     </row>
@@ -2932,30 +2592,24 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E57" t="n">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="F57" t="n">
-        <v>16</v>
+        <v>56.55883428515158</v>
       </c>
       <c r="G57" t="n">
-        <v>59</v>
+        <v>47.83075787003979</v>
       </c>
       <c r="H57" t="n">
-        <v>56.55883428515158</v>
+        <v>20.31</v>
       </c>
       <c r="I57" t="n">
-        <v>47.83075787003979</v>
+        <v>50.65</v>
       </c>
       <c r="J57" t="n">
-        <v>20.31</v>
-      </c>
-      <c r="K57" t="n">
-        <v>50.65</v>
-      </c>
-      <c r="L57" t="n">
         <v>3190.26</v>
       </c>
     </row>
@@ -2976,30 +2630,24 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E58" t="n">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="F58" t="n">
-        <v>16</v>
+        <v>81.52936758603394</v>
       </c>
       <c r="G58" t="n">
-        <v>82</v>
+        <v>79.24729555557188</v>
       </c>
       <c r="H58" t="n">
-        <v>81.52936758603394</v>
+        <v>27.535</v>
       </c>
       <c r="I58" t="n">
-        <v>79.24729555557188</v>
+        <v>40.795</v>
       </c>
       <c r="J58" t="n">
-        <v>27.535</v>
-      </c>
-      <c r="K58" t="n">
-        <v>40.795</v>
-      </c>
-      <c r="L58" t="n">
         <v>3776.805</v>
       </c>
     </row>
@@ -3020,30 +2668,24 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E59" t="n">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="F59" t="n">
-        <v>17</v>
+        <v>63.88976201804039</v>
       </c>
       <c r="G59" t="n">
-        <v>69</v>
+        <v>60.32775704337822</v>
       </c>
       <c r="H59" t="n">
-        <v>63.88976201804039</v>
+        <v>21.805</v>
       </c>
       <c r="I59" t="n">
-        <v>60.32775704337822</v>
+        <v>46.34</v>
       </c>
       <c r="J59" t="n">
-        <v>21.805</v>
-      </c>
-      <c r="K59" t="n">
-        <v>46.34</v>
-      </c>
-      <c r="L59" t="n">
         <v>3155.02</v>
       </c>
     </row>
@@ -3064,30 +2706,24 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E60" t="n">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="F60" t="n">
-        <v>18</v>
+        <v>85.49072515085162</v>
       </c>
       <c r="G60" t="n">
-        <v>88</v>
+        <v>80.38290886161178</v>
       </c>
       <c r="H60" t="n">
-        <v>85.49072515085162</v>
+        <v>26.28</v>
       </c>
       <c r="I60" t="n">
-        <v>80.38290886161178</v>
+        <v>54.39</v>
       </c>
       <c r="J60" t="n">
-        <v>26.28</v>
-      </c>
-      <c r="K60" t="n">
-        <v>54.39</v>
-      </c>
-      <c r="L60" t="n">
         <v>4000</v>
       </c>
     </row>
@@ -3108,30 +2744,24 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E61" t="n">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="F61" t="n">
-        <v>16</v>
+        <v>92.72406248262513</v>
       </c>
       <c r="G61" t="n">
-        <v>97</v>
+        <v>77.9030693144562</v>
       </c>
       <c r="H61" t="n">
-        <v>92.72406248262513</v>
+        <v>30.01</v>
       </c>
       <c r="I61" t="n">
-        <v>77.9030693144562</v>
+        <v>32.6</v>
       </c>
       <c r="J61" t="n">
-        <v>30.01</v>
-      </c>
-      <c r="K61" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="L61" t="n">
         <v>3923.92</v>
       </c>
     </row>
@@ -3152,30 +2782,24 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E62" t="n">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="F62" t="n">
-        <v>28</v>
+        <v>71.60213370846034</v>
       </c>
       <c r="G62" t="n">
-        <v>78</v>
+        <v>68.97138176414914</v>
       </c>
       <c r="H62" t="n">
-        <v>71.60213370846034</v>
+        <v>25.18</v>
       </c>
       <c r="I62" t="n">
-        <v>68.97138176414914</v>
+        <v>29.14</v>
       </c>
       <c r="J62" t="n">
-        <v>25.18</v>
-      </c>
-      <c r="K62" t="n">
-        <v>29.14</v>
-      </c>
-      <c r="L62" t="n">
         <v>2541.2</v>
       </c>
     </row>
@@ -3196,30 +2820,24 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E63" t="n">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="F63" t="n">
-        <v>28</v>
+        <v>82.62724291752032</v>
       </c>
       <c r="G63" t="n">
-        <v>83</v>
+        <v>80.94017739825928</v>
       </c>
       <c r="H63" t="n">
-        <v>82.62724291752032</v>
+        <v>26.94</v>
       </c>
       <c r="I63" t="n">
-        <v>80.94017739825928</v>
+        <v>23.7</v>
       </c>
       <c r="J63" t="n">
-        <v>26.94</v>
-      </c>
-      <c r="K63" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="L63" t="n">
         <v>2594.65</v>
       </c>
     </row>
@@ -3240,30 +2858,24 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E64" t="n">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="F64" t="n">
-        <v>18</v>
+        <v>71.14222974971777</v>
       </c>
       <c r="G64" t="n">
-        <v>77</v>
+        <v>71.14222974971777</v>
       </c>
       <c r="H64" t="n">
-        <v>71.14222974971777</v>
+        <v>23.63</v>
       </c>
       <c r="I64" t="n">
-        <v>71.14222974971777</v>
+        <v>42.88</v>
       </c>
       <c r="J64" t="n">
-        <v>23.63</v>
-      </c>
-      <c r="K64" t="n">
-        <v>42.88</v>
-      </c>
-      <c r="L64" t="n">
         <v>3586.45</v>
       </c>
     </row>
@@ -3284,30 +2896,24 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E65" t="n">
-        <v>17</v>
+        <v>66.5</v>
       </c>
       <c r="F65" t="n">
-        <v>15</v>
+        <v>60.51161221041958</v>
       </c>
       <c r="G65" t="n">
-        <v>66.5</v>
+        <v>57.22720718866403</v>
       </c>
       <c r="H65" t="n">
-        <v>60.51161221041958</v>
+        <v>21.71</v>
       </c>
       <c r="I65" t="n">
-        <v>57.22720718866403</v>
+        <v>61.46</v>
       </c>
       <c r="J65" t="n">
-        <v>21.71</v>
-      </c>
-      <c r="K65" t="n">
-        <v>61.46</v>
-      </c>
-      <c r="L65" t="n">
         <v>3609.84</v>
       </c>
     </row>
@@ -3328,30 +2934,24 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E66" t="n">
-        <v>20</v>
+        <v>88.5</v>
       </c>
       <c r="F66" t="n">
-        <v>18</v>
+        <v>85.31085420818381</v>
       </c>
       <c r="G66" t="n">
-        <v>88.5</v>
+        <v>81.10539783484859</v>
       </c>
       <c r="H66" t="n">
-        <v>85.31085420818381</v>
+        <v>27.825</v>
       </c>
       <c r="I66" t="n">
-        <v>81.10539783484859</v>
+        <v>32.54</v>
       </c>
       <c r="J66" t="n">
-        <v>27.825</v>
-      </c>
-      <c r="K66" t="n">
-        <v>32.54</v>
-      </c>
-      <c r="L66" t="n">
         <v>3615.985</v>
       </c>
     </row>
@@ -3372,30 +2972,24 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E67" t="n">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="F67" t="n">
-        <v>16</v>
+        <v>60.54726081217567</v>
       </c>
       <c r="G67" t="n">
-        <v>65</v>
+        <v>53.71663242988635</v>
       </c>
       <c r="H67" t="n">
-        <v>60.54726081217567</v>
+        <v>22.47</v>
       </c>
       <c r="I67" t="n">
-        <v>53.71663242988635</v>
+        <v>55.65</v>
       </c>
       <c r="J67" t="n">
-        <v>22.47</v>
-      </c>
-      <c r="K67" t="n">
-        <v>55.65</v>
-      </c>
-      <c r="L67" t="n">
         <v>3430.23</v>
       </c>
     </row>
@@ -3416,30 +3010,24 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E68" t="n">
-        <v>19</v>
+        <v>52.5</v>
       </c>
       <c r="F68" t="n">
-        <v>17</v>
+        <v>51.28190052442572</v>
       </c>
       <c r="G68" t="n">
-        <v>52.5</v>
+        <v>48.07580113168764</v>
       </c>
       <c r="H68" t="n">
-        <v>51.28190052442572</v>
+        <v>18.025</v>
       </c>
       <c r="I68" t="n">
-        <v>48.07580113168764</v>
+        <v>47.40000000000001</v>
       </c>
       <c r="J68" t="n">
-        <v>18.025</v>
-      </c>
-      <c r="K68" t="n">
-        <v>47.40000000000001</v>
-      </c>
-      <c r="L68" t="n">
         <v>2523.69</v>
       </c>
     </row>
@@ -3460,30 +3048,24 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="E69" t="n">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="F69" t="n">
-        <v>24</v>
+        <v>67.64777266281172</v>
       </c>
       <c r="G69" t="n">
-        <v>70</v>
+        <v>62.64510727456531</v>
       </c>
       <c r="H69" t="n">
-        <v>67.64777266281172</v>
+        <v>23.6475</v>
       </c>
       <c r="I69" t="n">
-        <v>62.64510727456531</v>
+        <v>37.965</v>
       </c>
       <c r="J69" t="n">
-        <v>23.6475</v>
-      </c>
-      <c r="K69" t="n">
-        <v>37.965</v>
-      </c>
-      <c r="L69" t="n">
         <v>2961.869999999999</v>
       </c>
     </row>
@@ -3504,30 +3086,24 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="E70" t="n">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="F70" t="n">
-        <v>30</v>
+        <v>63.01043925096315</v>
       </c>
       <c r="G70" t="n">
-        <v>66</v>
+        <v>60.31679969977628</v>
       </c>
       <c r="H70" t="n">
-        <v>63.01043925096315</v>
+        <v>20.49</v>
       </c>
       <c r="I70" t="n">
-        <v>60.31679969977628</v>
+        <v>29.26</v>
       </c>
       <c r="J70" t="n">
-        <v>20.49</v>
-      </c>
-      <c r="K70" t="n">
-        <v>29.26</v>
-      </c>
-      <c r="L70" t="n">
         <v>1838.77</v>
       </c>
     </row>
@@ -3548,30 +3124,24 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>2</v>
+        <v>19.66666666666666</v>
       </c>
       <c r="E71" t="n">
-        <v>19.66666666666666</v>
+        <v>80.66666666666666</v>
       </c>
       <c r="F71" t="n">
-        <v>17.66666666666666</v>
+        <v>74.86329792950998</v>
       </c>
       <c r="G71" t="n">
-        <v>80.66666666666666</v>
+        <v>72.11818741808889</v>
       </c>
       <c r="H71" t="n">
-        <v>74.86329792950998</v>
+        <v>24.705</v>
       </c>
       <c r="I71" t="n">
-        <v>72.11818741808889</v>
+        <v>38.04333333333334</v>
       </c>
       <c r="J71" t="n">
-        <v>24.705</v>
-      </c>
-      <c r="K71" t="n">
-        <v>38.04333333333334</v>
-      </c>
-      <c r="L71" t="n">
         <v>3426.996666666667</v>
       </c>
     </row>
@@ -3592,30 +3162,24 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E72" t="n">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="F72" t="n">
-        <v>16</v>
+        <v>46.60838020806955</v>
       </c>
       <c r="G72" t="n">
-        <v>54</v>
+        <v>45.50548823384586</v>
       </c>
       <c r="H72" t="n">
-        <v>46.60838020806955</v>
+        <v>16.8</v>
       </c>
       <c r="I72" t="n">
-        <v>45.50548823384586</v>
+        <v>42.67</v>
       </c>
       <c r="J72" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="K72" t="n">
-        <v>42.67</v>
-      </c>
-      <c r="L72" t="n">
         <v>2527.21</v>
       </c>
     </row>
@@ -3636,30 +3200,24 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E73" t="n">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="F73" t="n">
-        <v>18</v>
+        <v>68.506495392711</v>
       </c>
       <c r="G73" t="n">
-        <v>73</v>
+        <v>64.14140679385784</v>
       </c>
       <c r="H73" t="n">
-        <v>68.506495392711</v>
+        <v>21.75</v>
       </c>
       <c r="I73" t="n">
-        <v>64.14140679385784</v>
+        <v>36.39</v>
       </c>
       <c r="J73" t="n">
-        <v>21.75</v>
-      </c>
-      <c r="K73" t="n">
-        <v>36.39</v>
-      </c>
-      <c r="L73" t="n">
         <v>2954.34</v>
       </c>
     </row>
@@ -3680,30 +3238,24 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>2</v>
+        <v>32.66666666666666</v>
       </c>
       <c r="E74" t="n">
-        <v>32.66666666666666</v>
+        <v>57</v>
       </c>
       <c r="F74" t="n">
-        <v>30.66666666666667</v>
+        <v>56.92555495152623</v>
       </c>
       <c r="G74" t="n">
-        <v>57</v>
+        <v>49.43887445519065</v>
       </c>
       <c r="H74" t="n">
-        <v>56.92555495152623</v>
+        <v>17.67</v>
       </c>
       <c r="I74" t="n">
-        <v>49.43887445519065</v>
+        <v>23.67</v>
       </c>
       <c r="J74" t="n">
-        <v>17.67</v>
-      </c>
-      <c r="K74" t="n">
-        <v>23.67</v>
-      </c>
-      <c r="L74" t="n">
         <v>1793.153333333333</v>
       </c>
     </row>
@@ -3724,30 +3276,24 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="E75" t="n">
-        <v>24</v>
+        <v>50.5</v>
       </c>
       <c r="F75" t="n">
-        <v>22</v>
+        <v>50.3416677193412</v>
       </c>
       <c r="G75" t="n">
-        <v>50.5</v>
+        <v>49.24425736851155</v>
       </c>
       <c r="H75" t="n">
-        <v>50.3416677193412</v>
+        <v>16.055</v>
       </c>
       <c r="I75" t="n">
-        <v>49.24425736851155</v>
+        <v>33.615</v>
       </c>
       <c r="J75" t="n">
-        <v>16.055</v>
-      </c>
-      <c r="K75" t="n">
-        <v>33.615</v>
-      </c>
-      <c r="L75" t="n">
         <v>1828.18</v>
       </c>
     </row>
@@ -3768,30 +3314,24 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E76" t="n">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="F76" t="n">
-        <v>28</v>
+        <v>55.20957861484356</v>
       </c>
       <c r="G76" t="n">
-        <v>58</v>
+        <v>55.20957861484356</v>
       </c>
       <c r="H76" t="n">
-        <v>55.20957861484356</v>
+        <v>21.08</v>
       </c>
       <c r="I76" t="n">
-        <v>55.20957861484356</v>
+        <v>33.52</v>
       </c>
       <c r="J76" t="n">
-        <v>21.08</v>
-      </c>
-      <c r="K76" t="n">
-        <v>33.52</v>
-      </c>
-      <c r="L76" t="n">
         <v>2607.98</v>
       </c>
     </row>
@@ -3812,30 +3352,24 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>2</v>
+        <v>30.5</v>
       </c>
       <c r="E77" t="n">
-        <v>30.5</v>
+        <v>45</v>
       </c>
       <c r="F77" t="n">
-        <v>28.5</v>
+        <v>45.34294935934766</v>
       </c>
       <c r="G77" t="n">
-        <v>45</v>
+        <v>45.28069517209907</v>
       </c>
       <c r="H77" t="n">
-        <v>45.34294935934766</v>
+        <v>14.385</v>
       </c>
       <c r="I77" t="n">
-        <v>45.28069517209907</v>
+        <v>27.845</v>
       </c>
       <c r="J77" t="n">
-        <v>14.385</v>
-      </c>
-      <c r="K77" t="n">
-        <v>27.845</v>
-      </c>
-      <c r="L77" t="n">
         <v>1413.935</v>
       </c>
     </row>
@@ -3856,30 +3390,24 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="E78" t="n">
-        <v>24</v>
+        <v>66.5</v>
       </c>
       <c r="F78" t="n">
-        <v>22</v>
+        <v>61.22113693769167</v>
       </c>
       <c r="G78" t="n">
-        <v>66.5</v>
+        <v>58.85752597358655</v>
       </c>
       <c r="H78" t="n">
-        <v>61.22113693769167</v>
+        <v>23.3</v>
       </c>
       <c r="I78" t="n">
-        <v>58.85752597358655</v>
+        <v>49.615</v>
       </c>
       <c r="J78" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="K78" t="n">
-        <v>49.615</v>
-      </c>
-      <c r="L78" t="n">
         <v>3451.505</v>
       </c>
     </row>
@@ -3900,30 +3428,24 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="E79" t="n">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="F79" t="n">
-        <v>26</v>
+        <v>44.57072617497598</v>
       </c>
       <c r="G79" t="n">
-        <v>47</v>
+        <v>44.57072617497598</v>
       </c>
       <c r="H79" t="n">
-        <v>44.57072617497598</v>
+        <v>14.84</v>
       </c>
       <c r="I79" t="n">
-        <v>44.57072617497598</v>
+        <v>40.05</v>
       </c>
       <c r="J79" t="n">
-        <v>14.84</v>
-      </c>
-      <c r="K79" t="n">
-        <v>40.05</v>
-      </c>
-      <c r="L79" t="n">
         <v>1753.86</v>
       </c>
     </row>
@@ -3944,30 +3466,24 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="E80" t="n">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="F80" t="n">
-        <v>30</v>
+        <v>55.9885468929738</v>
       </c>
       <c r="G80" t="n">
-        <v>56</v>
+        <v>55.9885468929738</v>
       </c>
       <c r="H80" t="n">
-        <v>55.9885468929738</v>
+        <v>18.59</v>
       </c>
       <c r="I80" t="n">
-        <v>55.9885468929738</v>
+        <v>21.27</v>
       </c>
       <c r="J80" t="n">
-        <v>18.59</v>
-      </c>
-      <c r="K80" t="n">
-        <v>21.27</v>
-      </c>
-      <c r="L80" t="n">
         <v>1635.4</v>
       </c>
     </row>
@@ -3988,30 +3504,24 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="E81" t="n">
-        <v>31</v>
+        <v>51.5</v>
       </c>
       <c r="F81" t="n">
-        <v>29</v>
+        <v>50.85033893234626</v>
       </c>
       <c r="G81" t="n">
-        <v>51.5</v>
+        <v>49.9574719551843</v>
       </c>
       <c r="H81" t="n">
-        <v>50.85033893234626</v>
+        <v>16.84</v>
       </c>
       <c r="I81" t="n">
-        <v>49.9574719551843</v>
+        <v>29.225</v>
       </c>
       <c r="J81" t="n">
-        <v>16.84</v>
-      </c>
-      <c r="K81" t="n">
-        <v>29.225</v>
-      </c>
-      <c r="L81" t="n">
         <v>1889.43</v>
       </c>
     </row>
@@ -4032,30 +3542,24 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="E82" t="n">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="F82" t="n">
-        <v>30</v>
+        <v>62.02095992127803</v>
       </c>
       <c r="G82" t="n">
-        <v>62</v>
+        <v>62.02095992127803</v>
       </c>
       <c r="H82" t="n">
-        <v>62.02095992127803</v>
+        <v>22.01</v>
       </c>
       <c r="I82" t="n">
-        <v>62.02095992127803</v>
+        <v>41.57</v>
       </c>
       <c r="J82" t="n">
-        <v>22.01</v>
-      </c>
-      <c r="K82" t="n">
-        <v>41.57</v>
-      </c>
-      <c r="L82" t="n">
         <v>2727.98</v>
       </c>
     </row>
@@ -4076,30 +3580,24 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="E83" t="n">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="F83" t="n">
-        <v>22</v>
+        <v>56.6406125573895</v>
       </c>
       <c r="G83" t="n">
-        <v>58</v>
+        <v>55.91634763724687</v>
       </c>
       <c r="H83" t="n">
-        <v>56.6406125573895</v>
+        <v>20.965</v>
       </c>
       <c r="I83" t="n">
-        <v>55.91634763724687</v>
+        <v>48.575</v>
       </c>
       <c r="J83" t="n">
-        <v>20.965</v>
-      </c>
-      <c r="K83" t="n">
-        <v>48.575</v>
-      </c>
-      <c r="L83" t="n">
         <v>3356.36</v>
       </c>
     </row>
@@ -4120,30 +3618,24 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E84" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F84" t="n">
-        <v>28</v>
+        <v>25.41239199326127</v>
       </c>
       <c r="G84" t="n">
-        <v>27</v>
+        <v>23.1067866318623</v>
       </c>
       <c r="H84" t="n">
-        <v>25.41239199326127</v>
+        <v>8.99</v>
       </c>
       <c r="I84" t="n">
-        <v>23.1067866318623</v>
+        <v>26.98</v>
       </c>
       <c r="J84" t="n">
-        <v>8.99</v>
-      </c>
-      <c r="K84" t="n">
-        <v>26.98</v>
-      </c>
-      <c r="L84" t="n">
         <v>1088.55</v>
       </c>
     </row>
@@ -4164,30 +3656,24 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="E85" t="n">
-        <v>32</v>
+        <v>62.5</v>
       </c>
       <c r="F85" t="n">
-        <v>30</v>
+        <v>61.17872833324817</v>
       </c>
       <c r="G85" t="n">
-        <v>62.5</v>
+        <v>58.68736795708592</v>
       </c>
       <c r="H85" t="n">
-        <v>61.17872833324817</v>
+        <v>20.275</v>
       </c>
       <c r="I85" t="n">
-        <v>58.68736795708592</v>
+        <v>27.25</v>
       </c>
       <c r="J85" t="n">
-        <v>20.275</v>
-      </c>
-      <c r="K85" t="n">
-        <v>27.25</v>
-      </c>
-      <c r="L85" t="n">
         <v>1860.655</v>
       </c>
     </row>
@@ -4208,30 +3694,24 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2</v>
+        <v>30.66666666666667</v>
       </c>
       <c r="E86" t="n">
-        <v>30.66666666666667</v>
+        <v>48.33333333333334</v>
       </c>
       <c r="F86" t="n">
-        <v>28.66666666666667</v>
+        <v>46.77469844779006</v>
       </c>
       <c r="G86" t="n">
-        <v>48.33333333333334</v>
+        <v>46.60473207494096</v>
       </c>
       <c r="H86" t="n">
-        <v>46.77469844779006</v>
+        <v>15.53333333333333</v>
       </c>
       <c r="I86" t="n">
-        <v>46.60473207494096</v>
+        <v>28.49333333333333</v>
       </c>
       <c r="J86" t="n">
-        <v>15.53333333333333</v>
-      </c>
-      <c r="K86" t="n">
-        <v>28.49333333333333</v>
-      </c>
-      <c r="L86" t="n">
         <v>1637.813333333333</v>
       </c>
     </row>
@@ -4252,30 +3732,24 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="E87" t="n">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="F87" t="n">
-        <v>29</v>
+        <v>54.28897940344785</v>
       </c>
       <c r="G87" t="n">
-        <v>56</v>
+        <v>52.77358109171255</v>
       </c>
       <c r="H87" t="n">
-        <v>54.28897940344785</v>
+        <v>18.85</v>
       </c>
       <c r="I87" t="n">
-        <v>52.77358109171255</v>
+        <v>28.365</v>
       </c>
       <c r="J87" t="n">
-        <v>18.85</v>
-      </c>
-      <c r="K87" t="n">
-        <v>28.365</v>
-      </c>
-      <c r="L87" t="n">
         <v>2122.385</v>
       </c>
     </row>
@@ -4296,30 +3770,24 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="E88" t="n">
-        <v>32</v>
+        <v>39.5</v>
       </c>
       <c r="F88" t="n">
-        <v>30</v>
+        <v>38.32465011402937</v>
       </c>
       <c r="G88" t="n">
-        <v>39.5</v>
+        <v>36.86607010616989</v>
       </c>
       <c r="H88" t="n">
-        <v>38.32465011402937</v>
+        <v>12.785</v>
       </c>
       <c r="I88" t="n">
-        <v>36.86607010616989</v>
+        <v>24.905</v>
       </c>
       <c r="J88" t="n">
-        <v>12.785</v>
-      </c>
-      <c r="K88" t="n">
-        <v>24.905</v>
-      </c>
-      <c r="L88" t="n">
         <v>1165.61</v>
       </c>
     </row>
@@ -4340,30 +3808,24 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="E89" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="F89" t="n">
-        <v>26</v>
+        <v>45.92877912207641</v>
       </c>
       <c r="G89" t="n">
-        <v>46</v>
+        <v>39.41673357903083</v>
       </c>
       <c r="H89" t="n">
-        <v>45.92877912207641</v>
+        <v>13.88</v>
       </c>
       <c r="I89" t="n">
-        <v>39.41673357903083</v>
+        <v>15.97</v>
       </c>
       <c r="J89" t="n">
-        <v>13.88</v>
-      </c>
-      <c r="K89" t="n">
-        <v>15.97</v>
-      </c>
-      <c r="L89" t="n">
         <v>1884.88</v>
       </c>
     </row>
@@ -4384,30 +3846,24 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="E90" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F90" t="n">
-        <v>22</v>
+        <v>27.14364632815601</v>
       </c>
       <c r="G90" t="n">
-        <v>28</v>
+        <v>25.20432971540769</v>
       </c>
       <c r="H90" t="n">
-        <v>27.14364632815601</v>
+        <v>9.015000000000001</v>
       </c>
       <c r="I90" t="n">
-        <v>25.20432971540769</v>
+        <v>38.725</v>
       </c>
       <c r="J90" t="n">
-        <v>9.015000000000001</v>
-      </c>
-      <c r="K90" t="n">
-        <v>38.725</v>
-      </c>
-      <c r="L90" t="n">
         <v>1192.36</v>
       </c>
     </row>

--- a/[3] Test Input/RESULTS_TT_MERGED_DATE.xlsx
+++ b/[3] Test Input/RESULTS_TT_MERGED_DATE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J90"/>
+  <dimension ref="A1:I90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,11 +476,6 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>tau</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
           <t>AUC</t>
         </is>
       </c>
@@ -517,10 +512,7 @@
         <v>12.28</v>
       </c>
       <c r="I2" t="n">
-        <v>26.68</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1398.39</v>
+        <v>952.4349999999999</v>
       </c>
     </row>
     <row r="3">
@@ -555,10 +547,7 @@
         <v>14.15</v>
       </c>
       <c r="I3" t="n">
-        <v>34.52666666666666</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1790.253333333333</v>
+        <v>1109.35</v>
       </c>
     </row>
     <row r="4">
@@ -593,10 +582,7 @@
         <v>13.295</v>
       </c>
       <c r="I4" t="n">
-        <v>38.66500000000001</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1705.13</v>
+        <v>1109.58</v>
       </c>
     </row>
     <row r="5">
@@ -631,10 +617,7 @@
         <v>12.47</v>
       </c>
       <c r="I5" t="n">
-        <v>27.19</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1398.13</v>
+        <v>849.1900000000001</v>
       </c>
     </row>
     <row r="6">
@@ -669,10 +652,7 @@
         <v>8.390000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>48.67</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1527.07</v>
+        <v>1051.97</v>
       </c>
     </row>
     <row r="7">
@@ -707,10 +687,7 @@
         <v>9.280000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>25.1075</v>
-      </c>
-      <c r="J7" t="n">
-        <v>995.8699999999999</v>
+        <v>658.9275</v>
       </c>
     </row>
     <row r="8">
@@ -745,10 +722,7 @@
         <v>3.74</v>
       </c>
       <c r="I8" t="n">
-        <v>6.65</v>
-      </c>
-      <c r="J8" t="n">
-        <v>814.05</v>
+        <v>453.62</v>
       </c>
     </row>
     <row r="9">
@@ -783,10 +757,7 @@
         <v>11.41</v>
       </c>
       <c r="I9" t="n">
-        <v>28.575</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1489.095</v>
+        <v>1049.165</v>
       </c>
     </row>
     <row r="10">
@@ -821,10 +792,7 @@
         <v>12.67</v>
       </c>
       <c r="I10" t="n">
-        <v>23.195</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1337.01</v>
+        <v>914.55</v>
       </c>
     </row>
     <row r="11">
@@ -859,10 +827,7 @@
         <v>12.83</v>
       </c>
       <c r="I11" t="n">
-        <v>25.02</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1276.1</v>
+        <v>799.89</v>
       </c>
     </row>
     <row r="12">
@@ -897,10 +862,7 @@
         <v>11.595</v>
       </c>
       <c r="I12" t="n">
-        <v>29.5125</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1320.66</v>
+        <v>829.7624999999999</v>
       </c>
     </row>
     <row r="13">
@@ -935,10 +897,7 @@
         <v>8.050000000000001</v>
       </c>
       <c r="I13" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="J13" t="n">
-        <v>900.88</v>
+        <v>536.6799999999999</v>
       </c>
     </row>
     <row r="14">
@@ -973,10 +932,7 @@
         <v>8.688333333333334</v>
       </c>
       <c r="I14" t="n">
-        <v>15.42833333333333</v>
-      </c>
-      <c r="J14" t="n">
-        <v>774.3900000000001</v>
+        <v>528.2766666666666</v>
       </c>
     </row>
     <row r="15">
@@ -1011,10 +967,7 @@
         <v>11.4025</v>
       </c>
       <c r="I15" t="n">
-        <v>29.14</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1313.3625</v>
+        <v>876.005</v>
       </c>
     </row>
     <row r="16">
@@ -1049,10 +1002,7 @@
         <v>14.34</v>
       </c>
       <c r="I16" t="n">
-        <v>43.81</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1790.095</v>
+        <v>1095.21</v>
       </c>
     </row>
     <row r="17">
@@ -1087,10 +1037,7 @@
         <v>11.18</v>
       </c>
       <c r="I17" t="n">
-        <v>13.63</v>
-      </c>
-      <c r="J17" t="n">
-        <v>955.5</v>
+        <v>643.84</v>
       </c>
     </row>
     <row r="18">
@@ -1125,10 +1072,7 @@
         <v>16.16</v>
       </c>
       <c r="I18" t="n">
-        <v>41.685</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2223.38</v>
+        <v>1435.53</v>
       </c>
     </row>
     <row r="19">
@@ -1163,10 +1107,7 @@
         <v>17.89</v>
       </c>
       <c r="I19" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1751.87</v>
+        <v>1036.82</v>
       </c>
     </row>
     <row r="20">
@@ -1201,10 +1142,7 @@
         <v>9.779999999999999</v>
       </c>
       <c r="I20" t="n">
-        <v>15.78</v>
-      </c>
-      <c r="J20" t="n">
-        <v>937.85</v>
+        <v>621.92</v>
       </c>
     </row>
     <row r="21">
@@ -1239,10 +1177,7 @@
         <v>19.24</v>
       </c>
       <c r="I21" t="n">
-        <v>31.635</v>
-      </c>
-      <c r="J21" t="n">
-        <v>2055.65</v>
+        <v>1328.285</v>
       </c>
     </row>
     <row r="22">
@@ -1277,10 +1212,7 @@
         <v>14.98</v>
       </c>
       <c r="I22" t="n">
-        <v>34.025</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1829.245</v>
+        <v>1167.795</v>
       </c>
     </row>
     <row r="23">
@@ -1315,10 +1247,7 @@
         <v>18.71</v>
       </c>
       <c r="I23" t="n">
-        <v>31.05</v>
-      </c>
-      <c r="J23" t="n">
-        <v>2480.36</v>
+        <v>1481.61</v>
       </c>
     </row>
     <row r="24">
@@ -1353,10 +1282,7 @@
         <v>11.32</v>
       </c>
       <c r="I24" t="n">
-        <v>32.63</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1106.22</v>
+        <v>751.25</v>
       </c>
     </row>
     <row r="25">
@@ -1391,10 +1317,7 @@
         <v>14.12</v>
       </c>
       <c r="I25" t="n">
-        <v>23.545</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1548.331666666667</v>
+        <v>924.2800000000001</v>
       </c>
     </row>
     <row r="26">
@@ -1429,10 +1352,7 @@
         <v>15.915</v>
       </c>
       <c r="I26" t="n">
-        <v>40.72499999999999</v>
-      </c>
-      <c r="J26" t="n">
-        <v>2212.58</v>
+        <v>1418.36</v>
       </c>
     </row>
     <row r="27">
@@ -1467,10 +1387,7 @@
         <v>13.45</v>
       </c>
       <c r="I27" t="n">
-        <v>35.435</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1558.955</v>
+        <v>984.23</v>
       </c>
     </row>
     <row r="28">
@@ -1505,10 +1422,7 @@
         <v>12.22</v>
       </c>
       <c r="I28" t="n">
-        <v>37.99</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1396.3</v>
+        <v>862.51</v>
       </c>
     </row>
     <row r="29">
@@ -1543,10 +1457,7 @@
         <v>10.41</v>
       </c>
       <c r="I29" t="n">
-        <v>9.869999999999999</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1100.22</v>
+        <v>752.0599999999999</v>
       </c>
     </row>
     <row r="30">
@@ -1581,10 +1492,7 @@
         <v>28.755</v>
       </c>
       <c r="I30" t="n">
-        <v>45.785</v>
-      </c>
-      <c r="J30" t="n">
-        <v>4421.905000000001</v>
+        <v>2875.475</v>
       </c>
     </row>
     <row r="31">
@@ -1619,10 +1527,7 @@
         <v>25.72</v>
       </c>
       <c r="I31" t="n">
-        <v>64.94</v>
-      </c>
-      <c r="J31" t="n">
-        <v>4534.51</v>
+        <v>2969.98</v>
       </c>
     </row>
     <row r="32">
@@ -1657,10 +1562,7 @@
         <v>39.5275</v>
       </c>
       <c r="I32" t="n">
-        <v>42.8075</v>
-      </c>
-      <c r="J32" t="n">
-        <v>5969.127500000001</v>
+        <v>3878.1675</v>
       </c>
     </row>
     <row r="33">
@@ -1695,10 +1597,7 @@
         <v>46.91</v>
       </c>
       <c r="I33" t="n">
-        <v>26.99</v>
-      </c>
-      <c r="J33" t="n">
-        <v>4245.61</v>
+        <v>3142.61</v>
       </c>
     </row>
     <row r="34">
@@ -1733,10 +1632,7 @@
         <v>42.08</v>
       </c>
       <c r="I34" t="n">
-        <v>47.33</v>
-      </c>
-      <c r="J34" t="n">
-        <v>6373.27</v>
+        <v>4122.84</v>
       </c>
     </row>
     <row r="35">
@@ -1771,10 +1667,7 @@
         <v>35.72</v>
       </c>
       <c r="I35" t="n">
-        <v>52.52</v>
-      </c>
-      <c r="J35" t="n">
-        <v>5476.32</v>
+        <v>3579.455</v>
       </c>
     </row>
     <row r="36">
@@ -1809,10 +1702,7 @@
         <v>33.185</v>
       </c>
       <c r="I36" t="n">
-        <v>55.44</v>
-      </c>
-      <c r="J36" t="n">
-        <v>3086.445</v>
+        <v>2361.225</v>
       </c>
     </row>
     <row r="37">
@@ -1847,10 +1737,7 @@
         <v>27.99</v>
       </c>
       <c r="I37" t="n">
-        <v>39.51333333333333</v>
-      </c>
-      <c r="J37" t="n">
-        <v>3732.513333333334</v>
+        <v>2421.163333333333</v>
       </c>
     </row>
     <row r="38">
@@ -1885,10 +1772,7 @@
         <v>14.05</v>
       </c>
       <c r="I38" t="n">
-        <v>43.38</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1834.96</v>
+        <v>1230.4</v>
       </c>
     </row>
     <row r="39">
@@ -1923,10 +1807,7 @@
         <v>25.1425</v>
       </c>
       <c r="I39" t="n">
-        <v>34.67</v>
-      </c>
-      <c r="J39" t="n">
-        <v>3220.3375</v>
+        <v>2110.315</v>
       </c>
     </row>
     <row r="40">
@@ -1961,10 +1842,7 @@
         <v>58.81</v>
       </c>
       <c r="I40" t="n">
-        <v>36.36</v>
-      </c>
-      <c r="J40" t="n">
-        <v>7754.48</v>
+        <v>5343.96</v>
       </c>
     </row>
     <row r="41">
@@ -1999,10 +1877,7 @@
         <v>37.3725</v>
       </c>
       <c r="I41" t="n">
-        <v>43.3425</v>
-      </c>
-      <c r="J41" t="n">
-        <v>5305.1675</v>
+        <v>3603.7675</v>
       </c>
     </row>
     <row r="42">
@@ -2037,10 +1912,7 @@
         <v>30</v>
       </c>
       <c r="I42" t="n">
-        <v>41.43</v>
-      </c>
-      <c r="J42" t="n">
-        <v>4296.01</v>
+        <v>2896.93</v>
       </c>
     </row>
     <row r="43">
@@ -2075,10 +1947,7 @@
         <v>27.405</v>
       </c>
       <c r="I43" t="n">
-        <v>35.86499999999999</v>
-      </c>
-      <c r="J43" t="n">
-        <v>3345.415</v>
+        <v>2144.44</v>
       </c>
     </row>
     <row r="44">
@@ -2113,10 +1982,7 @@
         <v>32.735</v>
       </c>
       <c r="I44" t="n">
-        <v>55.89833333333333</v>
-      </c>
-      <c r="J44" t="n">
-        <v>4523.25</v>
+        <v>2971.085</v>
       </c>
     </row>
     <row r="45">
@@ -2151,10 +2017,7 @@
         <v>33.09</v>
       </c>
       <c r="I45" t="n">
-        <v>55.44</v>
-      </c>
-      <c r="J45" t="n">
-        <v>5152.42</v>
+        <v>3219.805</v>
       </c>
     </row>
     <row r="46">
@@ -2189,10 +2052,7 @@
         <v>41.26</v>
       </c>
       <c r="I46" t="n">
-        <v>55.04</v>
-      </c>
-      <c r="J46" t="n">
-        <v>6939.63</v>
+        <v>4461.71</v>
       </c>
     </row>
     <row r="47">
@@ -2227,10 +2087,7 @@
         <v>35.72</v>
       </c>
       <c r="I47" t="n">
-        <v>36.615</v>
-      </c>
-      <c r="J47" t="n">
-        <v>4269.9</v>
+        <v>2799.39</v>
       </c>
     </row>
     <row r="48">
@@ -2265,10 +2122,7 @@
         <v>44.40000000000001</v>
       </c>
       <c r="I48" t="n">
-        <v>33.305</v>
-      </c>
-      <c r="J48" t="n">
-        <v>4854.77</v>
+        <v>3291.68</v>
       </c>
     </row>
     <row r="49">
@@ -2303,10 +2157,7 @@
         <v>27.95</v>
       </c>
       <c r="I49" t="n">
-        <v>63.85</v>
-      </c>
-      <c r="J49" t="n">
-        <v>4441.71</v>
+        <v>2993.42</v>
       </c>
     </row>
     <row r="50">
@@ -2341,10 +2192,7 @@
         <v>20.2</v>
       </c>
       <c r="I50" t="n">
-        <v>43.22</v>
-      </c>
-      <c r="J50" t="n">
-        <v>2962.44</v>
+        <v>1909.92</v>
       </c>
     </row>
     <row r="51">
@@ -2379,10 +2227,7 @@
         <v>33.675</v>
       </c>
       <c r="I51" t="n">
-        <v>54.235</v>
-      </c>
-      <c r="J51" t="n">
-        <v>5280.835</v>
+        <v>3379.055</v>
       </c>
     </row>
     <row r="52">
@@ -2417,10 +2262,7 @@
         <v>30.76</v>
       </c>
       <c r="I52" t="n">
-        <v>37.99166666666667</v>
-      </c>
-      <c r="J52" t="n">
-        <v>3790.938333333334</v>
+        <v>2527.755</v>
       </c>
     </row>
     <row r="53">
@@ -2455,10 +2297,7 @@
         <v>30.2675</v>
       </c>
       <c r="I53" t="n">
-        <v>49.36499999999999</v>
-      </c>
-      <c r="J53" t="n">
-        <v>4791.922500000001</v>
+        <v>3161.2925</v>
       </c>
     </row>
     <row r="54">
@@ -2493,10 +2332,7 @@
         <v>23.41</v>
       </c>
       <c r="I54" t="n">
-        <v>20.02</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2279.12</v>
+        <v>1432.47</v>
       </c>
     </row>
     <row r="55">
@@ -2531,10 +2367,7 @@
         <v>29.4</v>
       </c>
       <c r="I55" t="n">
-        <v>44.08</v>
-      </c>
-      <c r="J55" t="n">
-        <v>4181.98</v>
+        <v>2878.15</v>
       </c>
     </row>
     <row r="56">
@@ -2569,10 +2402,7 @@
         <v>31.72</v>
       </c>
       <c r="I56" t="n">
-        <v>45.28</v>
-      </c>
-      <c r="J56" t="n">
-        <v>4157.56</v>
+        <v>2932.88</v>
       </c>
     </row>
     <row r="57">
@@ -2607,10 +2437,7 @@
         <v>20.31</v>
       </c>
       <c r="I57" t="n">
-        <v>50.65</v>
-      </c>
-      <c r="J57" t="n">
-        <v>3190.26</v>
+        <v>1999.97</v>
       </c>
     </row>
     <row r="58">
@@ -2645,10 +2472,7 @@
         <v>27.535</v>
       </c>
       <c r="I58" t="n">
-        <v>40.795</v>
-      </c>
-      <c r="J58" t="n">
-        <v>3776.805</v>
+        <v>2564.715</v>
       </c>
     </row>
     <row r="59">
@@ -2683,10 +2507,7 @@
         <v>21.805</v>
       </c>
       <c r="I59" t="n">
-        <v>46.34</v>
-      </c>
-      <c r="J59" t="n">
-        <v>3155.02</v>
+        <v>2085.69</v>
       </c>
     </row>
     <row r="60">
@@ -2721,10 +2542,7 @@
         <v>26.28</v>
       </c>
       <c r="I60" t="n">
-        <v>54.39</v>
-      </c>
-      <c r="J60" t="n">
-        <v>4000</v>
+        <v>2687.13</v>
       </c>
     </row>
     <row r="61">
@@ -2759,10 +2577,7 @@
         <v>30.01</v>
       </c>
       <c r="I61" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="J61" t="n">
-        <v>3923.92</v>
+        <v>2499.62</v>
       </c>
     </row>
     <row r="62">
@@ -2797,10 +2612,7 @@
         <v>25.18</v>
       </c>
       <c r="I62" t="n">
-        <v>29.14</v>
-      </c>
-      <c r="J62" t="n">
-        <v>2541.2</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="63">
@@ -2835,10 +2647,7 @@
         <v>26.94</v>
       </c>
       <c r="I63" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2594.65</v>
+        <v>1717.08</v>
       </c>
     </row>
     <row r="64">
@@ -2873,10 +2682,7 @@
         <v>23.63</v>
       </c>
       <c r="I64" t="n">
-        <v>42.88</v>
-      </c>
-      <c r="J64" t="n">
-        <v>3586.45</v>
+        <v>2307.69</v>
       </c>
     </row>
     <row r="65">
@@ -2911,10 +2717,7 @@
         <v>21.71</v>
       </c>
       <c r="I65" t="n">
-        <v>61.46</v>
-      </c>
-      <c r="J65" t="n">
-        <v>3609.84</v>
+        <v>2321.62</v>
       </c>
     </row>
     <row r="66">
@@ -2949,10 +2752,7 @@
         <v>27.825</v>
       </c>
       <c r="I66" t="n">
-        <v>32.54</v>
-      </c>
-      <c r="J66" t="n">
-        <v>3615.985</v>
+        <v>2393.695</v>
       </c>
     </row>
     <row r="67">
@@ -2987,10 +2787,7 @@
         <v>22.47</v>
       </c>
       <c r="I67" t="n">
-        <v>55.65</v>
-      </c>
-      <c r="J67" t="n">
-        <v>3430.23</v>
+        <v>2195.84</v>
       </c>
     </row>
     <row r="68">
@@ -3025,10 +2822,7 @@
         <v>18.025</v>
       </c>
       <c r="I68" t="n">
-        <v>47.40000000000001</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2523.69</v>
+        <v>1833.07</v>
       </c>
     </row>
     <row r="69">
@@ -3063,10 +2857,7 @@
         <v>23.6475</v>
       </c>
       <c r="I69" t="n">
-        <v>37.965</v>
-      </c>
-      <c r="J69" t="n">
-        <v>2961.869999999999</v>
+        <v>1925.8825</v>
       </c>
     </row>
     <row r="70">
@@ -3101,10 +2892,7 @@
         <v>20.49</v>
       </c>
       <c r="I70" t="n">
-        <v>29.26</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1838.77</v>
+        <v>1322.89</v>
       </c>
     </row>
     <row r="71">
@@ -3139,10 +2927,7 @@
         <v>24.705</v>
       </c>
       <c r="I71" t="n">
-        <v>38.04333333333334</v>
-      </c>
-      <c r="J71" t="n">
-        <v>3426.996666666667</v>
+        <v>2189.58</v>
       </c>
     </row>
     <row r="72">
@@ -3177,10 +2962,7 @@
         <v>16.8</v>
       </c>
       <c r="I72" t="n">
-        <v>42.67</v>
-      </c>
-      <c r="J72" t="n">
-        <v>2527.21</v>
+        <v>1658.05</v>
       </c>
     </row>
     <row r="73">
@@ -3215,10 +2997,7 @@
         <v>21.75</v>
       </c>
       <c r="I73" t="n">
-        <v>36.39</v>
-      </c>
-      <c r="J73" t="n">
-        <v>2954.34</v>
+        <v>1993.77</v>
       </c>
     </row>
     <row r="74">
@@ -3253,10 +3032,7 @@
         <v>17.67</v>
       </c>
       <c r="I74" t="n">
-        <v>23.67</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1793.153333333333</v>
+        <v>1127.756666666667</v>
       </c>
     </row>
     <row r="75">
@@ -3291,10 +3067,7 @@
         <v>16.055</v>
       </c>
       <c r="I75" t="n">
-        <v>33.615</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1828.18</v>
+        <v>1220.495</v>
       </c>
     </row>
     <row r="76">
@@ -3329,10 +3102,7 @@
         <v>21.08</v>
       </c>
       <c r="I76" t="n">
-        <v>33.52</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2607.98</v>
+        <v>1700.57</v>
       </c>
     </row>
     <row r="77">
@@ -3367,10 +3137,7 @@
         <v>14.385</v>
       </c>
       <c r="I77" t="n">
-        <v>27.845</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1413.935</v>
+        <v>899.0675</v>
       </c>
     </row>
     <row r="78">
@@ -3405,10 +3172,7 @@
         <v>23.3</v>
       </c>
       <c r="I78" t="n">
-        <v>49.615</v>
-      </c>
-      <c r="J78" t="n">
-        <v>3451.505</v>
+        <v>2189.64</v>
       </c>
     </row>
     <row r="79">
@@ -3443,10 +3207,7 @@
         <v>14.84</v>
       </c>
       <c r="I79" t="n">
-        <v>40.05</v>
-      </c>
-      <c r="J79" t="n">
-        <v>1753.86</v>
+        <v>969.1</v>
       </c>
     </row>
     <row r="80">
@@ -3481,10 +3242,7 @@
         <v>18.59</v>
       </c>
       <c r="I80" t="n">
-        <v>21.27</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1635.4</v>
+        <v>1026.52</v>
       </c>
     </row>
     <row r="81">
@@ -3519,10 +3277,7 @@
         <v>16.84</v>
       </c>
       <c r="I81" t="n">
-        <v>29.225</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1889.43</v>
+        <v>1232.175</v>
       </c>
     </row>
     <row r="82">
@@ -3557,10 +3312,7 @@
         <v>22.01</v>
       </c>
       <c r="I82" t="n">
-        <v>41.57</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2727.98</v>
+        <v>1555.24</v>
       </c>
     </row>
     <row r="83">
@@ -3595,10 +3347,7 @@
         <v>20.965</v>
       </c>
       <c r="I83" t="n">
-        <v>48.575</v>
-      </c>
-      <c r="J83" t="n">
-        <v>3356.36</v>
+        <v>2071.765</v>
       </c>
     </row>
     <row r="84">
@@ -3633,10 +3382,7 @@
         <v>8.99</v>
       </c>
       <c r="I84" t="n">
-        <v>26.98</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1088.55</v>
+        <v>725.25</v>
       </c>
     </row>
     <row r="85">
@@ -3671,10 +3417,7 @@
         <v>20.275</v>
       </c>
       <c r="I85" t="n">
-        <v>27.25</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1860.655</v>
+        <v>1229.34</v>
       </c>
     </row>
     <row r="86">
@@ -3709,10 +3452,7 @@
         <v>15.53333333333333</v>
       </c>
       <c r="I86" t="n">
-        <v>28.49333333333333</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1637.813333333333</v>
+        <v>1011.95</v>
       </c>
     </row>
     <row r="87">
@@ -3747,10 +3487,7 @@
         <v>18.85</v>
       </c>
       <c r="I87" t="n">
-        <v>28.365</v>
-      </c>
-      <c r="J87" t="n">
-        <v>2122.385</v>
+        <v>1324.22</v>
       </c>
     </row>
     <row r="88">
@@ -3785,10 +3522,7 @@
         <v>12.785</v>
       </c>
       <c r="I88" t="n">
-        <v>24.905</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1165.61</v>
+        <v>740.45</v>
       </c>
     </row>
     <row r="89">
@@ -3823,10 +3557,7 @@
         <v>13.88</v>
       </c>
       <c r="I89" t="n">
-        <v>15.97</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1884.88</v>
+        <v>1044.8</v>
       </c>
     </row>
     <row r="90">
@@ -3861,10 +3592,7 @@
         <v>9.015000000000001</v>
       </c>
       <c r="I90" t="n">
-        <v>38.725</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1192.36</v>
+        <v>832.26</v>
       </c>
     </row>
   </sheetData>
